--- a/Components/Excel/Movies_DB/movies_db_uncleaned copy.xlsx
+++ b/Components/Excel/Movies_DB/movies_db_uncleaned copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ded4e9b9b367109/Data_Science_Prep/Components/Excel/Movies_DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{003C6DE2-9C34-4C76-93DE-71AEC1AF9F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A22899E5-769F-E54D-99D6-D76C8DE1A246}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{003C6DE2-9C34-4C76-93DE-71AEC1AF9F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B47463AC-3531-F241-978F-13BFAEDCF848}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="movies" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,11 @@
     <sheet name="actors" sheetId="3" r:id="rId3"/>
     <sheet name="movie_actor" sheetId="4" r:id="rId4"/>
     <sheet name="languages" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="Food">Table6[]</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="171">
   <si>
     <t>movie_id</t>
   </si>
@@ -533,13 +537,46 @@
     <t>movie_name</t>
   </si>
   <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Currency</t>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>dosa</t>
+  </si>
+  <si>
+    <t>burger</t>
+  </si>
+  <si>
+    <t>dumblings</t>
+  </si>
+  <si>
+    <t>samosa</t>
+  </si>
+  <si>
+    <t>Budget_Vlookup</t>
+  </si>
+  <si>
+    <t>revenue_vlookup</t>
+  </si>
+  <si>
+    <t>Unit_vlookup</t>
+  </si>
+  <si>
+    <t>Currency_vlookup</t>
+  </si>
+  <si>
+    <t>budget2</t>
+  </si>
+  <si>
+    <t>revenue2</t>
+  </si>
+  <si>
+    <t>unit2</t>
+  </si>
+  <si>
+    <t>currency2</t>
   </si>
 </sst>
 </file>
@@ -596,7 +633,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -612,12 +667,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -668,6 +717,18 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -704,10 +765,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}" name="Movies" displayName="Movies" ref="A1:K40" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:K40" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}" name="Movies" displayName="Movies" ref="A1:S40" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:S40" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}"/>
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{5E453F0D-B27C-433C-BF11-BA3FE1A6822E}" name="movie_id"/>
     <tableColumn id="10" xr3:uid="{87EE0BC9-B77C-C44A-B422-A93D5B841070}" name="movie_name"/>
     <tableColumn id="3" xr3:uid="{A73DC6E7-A5B7-4D92-B13E-587CFA363BFA}" name="industry"/>
@@ -715,17 +780,41 @@
     <tableColumn id="5" xr3:uid="{D500D219-E618-40DD-B4AA-E390F996EF1E}" name="imdb_rating"/>
     <tableColumn id="6" xr3:uid="{D06057E5-53B4-474F-BA7C-D7BC731BE502}" name="studio"/>
     <tableColumn id="7" xr3:uid="{70C8CD53-1FFB-4649-B796-093E6560F8C9}" name="language_id"/>
-    <tableColumn id="12" xr3:uid="{A92125EC-9537-4A49-A8A4-C4B321E60E1D}" name="Budget" dataDxfId="4">
+    <tableColumn id="12" xr3:uid="{A92125EC-9537-4A49-A8A4-C4B321E60E1D}" name="Budget_Vlookup" dataDxfId="16">
       <calculatedColumnFormula array="1">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{B8114B44-39FF-C341-8733-D52E59AD8CA5}" name="revenue" dataDxfId="3">
+    <tableColumn id="14" xr3:uid="{B8114B44-39FF-C341-8733-D52E59AD8CA5}" name="revenue_vlookup" dataDxfId="15">
       <calculatedColumnFormula array="1">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{4F897FDE-4826-A94D-A1F3-050D3B784C08}" name="Unit" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{4F897FDE-4826-A94D-A1F3-050D3B784C08}" name="Unit_vlookup" dataDxfId="14">
       <calculatedColumnFormula array="1">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{95CFA2F0-EC01-5943-9EF5-BCCBEDE16CA9}" name="Currency" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{95CFA2F0-EC01-5943-9EF5-BCCBEDE16CA9}" name="Currency_vlookup" dataDxfId="13">
       <calculatedColumnFormula array="1">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{F3248E19-FD0F-9943-9880-A349C75F7111}" name="budget" dataDxfId="4">
+      <calculatedColumnFormula array="1">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{A2CFE296-EA56-D440-A966-008013216BFD}" name="revenue" dataDxfId="7">
+      <calculatedColumnFormula array="1">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{A6078832-C997-244F-A293-535C47C33182}" name="unit" dataDxfId="6">
+      <calculatedColumnFormula array="1">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{67269A5D-F202-544A-B8FB-1FA93ABFFB5F}" name="currency" dataDxfId="5">
+      <calculatedColumnFormula array="1">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{597BA684-7E81-4541-A597-60EE625B3138}" name="budget2" dataDxfId="0">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{A15EBEA4-9FBA-BF4F-8950-4351FCD151F4}" name="revenue2" dataDxfId="3">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{650297CE-7CBA-D941-AFDC-31B755E911DF}" name="unit2" dataDxfId="2">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{0B5A0962-9389-6F47-93F4-B5DC3C98C2B3}" name="currency2" dataDxfId="1">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -733,7 +822,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}" name="Financials" displayName="Financials" ref="A1:E41" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}" name="Financials" displayName="Financials" ref="A1:E41" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:E41" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1A9B0F4-FC15-4DC9-80C7-7EBF56996521}" name="movie_id"/>
@@ -747,7 +836,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}" name="actors" displayName="actors" ref="A1:C68" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}" name="actors" displayName="actors" ref="A1:C68" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:C68" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{17C41506-36D4-4294-9829-5A0C52DE3455}" name="actor_id"/>
@@ -759,7 +848,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}" name="movieactor" displayName="movieactor" ref="A1:B86" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}" name="movieactor" displayName="movieactor" ref="A1:B86" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:B86" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{726AA249-607F-4CEE-9C80-419BD67B7D42}" name="movie_id"/>
@@ -770,13 +859,24 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}" name="languages" displayName="languages" ref="A1:B9" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}" name="languages" displayName="languages" ref="A1:B9" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:B9" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E256DBAD-6FC6-4A32-8A1D-C74A5F599F74}" name="language_id"/>
     <tableColumn id="2" xr3:uid="{583CF6B9-244C-4D0F-A271-B5A1C600F170}" name="name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CF0A2FC8-0A7F-8946-B1B4-7E6FA9502FC0}" name="Table6" displayName="Table6" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{CF0A2FC8-0A7F-8946-B1B4-7E6FA9502FC0}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{49B3A8E5-66FD-7844-9A7C-60C4E9AC0105}" name="Item"/>
+    <tableColumn id="2" xr3:uid="{7F0FE3CB-2BEE-9247-932F-04F76C53FAA6}" name="Price"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1043,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1058,10 +1158,19 @@
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1084,19 +1193,43 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1134,8 +1267,40 @@
         <f t="array" ref="K2">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="3" cm="1">
+        <f t="array" ref="L2">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" cm="1">
+        <f t="array" ref="M2">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>12.5</v>
+      </c>
+      <c r="N2" s="3" t="str" cm="1">
+        <f t="array" ref="N2">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Billions</v>
+      </c>
+      <c r="O2" s="3" t="str" cm="1">
+        <f t="array" ref="O2">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>INR</v>
+      </c>
+      <c r="P2" s="3" cm="1">
+        <f t="array" ref="P2">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" cm="1">
+        <f t="array" ref="Q2">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>12.5</v>
+      </c>
+      <c r="R2" s="3" t="str" cm="1">
+        <f t="array" ref="R2">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Billions</v>
+      </c>
+      <c r="S2" s="3" t="str" cm="1">
+        <f t="array" ref="S2">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>INR</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1161,20 +1326,52 @@
         <f t="array" ref="H3">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="I3" s="3" cm="1">
+      <c r="I3" cm="1">
         <f t="array" ref="I3">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>954.8</v>
       </c>
-      <c r="J3" s="3" t="str" cm="1">
+      <c r="J3" t="str" cm="1">
         <f t="array" ref="J3">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K3" s="3" t="str" cm="1">
+      <c r="K3" t="str" cm="1">
         <f t="array" ref="K3">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="3" cm="1">
+        <f t="array" ref="L3">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>200</v>
+      </c>
+      <c r="M3" s="3" cm="1">
+        <f t="array" ref="M3">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>954.8</v>
+      </c>
+      <c r="N3" s="3" t="str" cm="1">
+        <f t="array" ref="N3">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O3" s="3" t="str" cm="1">
+        <f t="array" ref="O3">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P3" s="3" cm="1">
+        <f t="array" ref="P3">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>200</v>
+      </c>
+      <c r="Q3" s="3" cm="1">
+        <f t="array" ref="Q3">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>954.8</v>
+      </c>
+      <c r="R3" s="3" t="str" cm="1">
+        <f t="array" ref="R3">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S3" s="3" t="str" cm="1">
+        <f t="array" ref="S3">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1200,20 +1397,52 @@
         <f t="array" ref="H4">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>165</v>
       </c>
-      <c r="I4" s="3" cm="1">
+      <c r="I4" cm="1">
         <f t="array" ref="I4">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>644.79999999999995</v>
       </c>
-      <c r="J4" s="3" t="str" cm="1">
+      <c r="J4" t="str" cm="1">
         <f t="array" ref="J4">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K4" s="3" t="str" cm="1">
+      <c r="K4" t="str" cm="1">
         <f t="array" ref="K4">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="3" cm="1">
+        <f t="array" ref="L4">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>165</v>
+      </c>
+      <c r="M4" s="3" cm="1">
+        <f t="array" ref="M4">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>644.79999999999995</v>
+      </c>
+      <c r="N4" s="3" t="str" cm="1">
+        <f t="array" ref="N4">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O4" s="3" t="str" cm="1">
+        <f t="array" ref="O4">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P4" s="3" cm="1">
+        <f t="array" ref="P4">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>165</v>
+      </c>
+      <c r="Q4" s="3" cm="1">
+        <f t="array" ref="Q4">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>644.79999999999995</v>
+      </c>
+      <c r="R4" s="3" t="str" cm="1">
+        <f t="array" ref="R4">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S4" s="3" t="str" cm="1">
+        <f t="array" ref="S4">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1239,20 +1468,52 @@
         <f t="array" ref="H5">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>180</v>
       </c>
-      <c r="I5" s="3" cm="1">
+      <c r="I5" cm="1">
         <f t="array" ref="I5">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>854</v>
       </c>
-      <c r="J5" s="3" t="str" cm="1">
+      <c r="J5" t="str" cm="1">
         <f t="array" ref="J5">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K5" s="3" t="str" cm="1">
+      <c r="K5" t="str" cm="1">
         <f t="array" ref="K5">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="3" cm="1">
+        <f t="array" ref="L5">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>180</v>
+      </c>
+      <c r="M5" s="3" cm="1">
+        <f t="array" ref="M5">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>854</v>
+      </c>
+      <c r="N5" s="3" t="str" cm="1">
+        <f t="array" ref="N5">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O5" s="3" t="str" cm="1">
+        <f t="array" ref="O5">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P5" s="3" cm="1">
+        <f t="array" ref="P5">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>180</v>
+      </c>
+      <c r="Q5" s="3" cm="1">
+        <f t="array" ref="Q5">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>854</v>
+      </c>
+      <c r="R5" s="3" t="str" cm="1">
+        <f t="array" ref="R5">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S5" s="3" t="str" cm="1">
+        <f t="array" ref="S5">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1278,20 +1539,52 @@
         <f t="array" ref="H6">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>250</v>
       </c>
-      <c r="I6" s="3" cm="1">
+      <c r="I6" cm="1">
         <f t="array" ref="I6">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>670</v>
       </c>
-      <c r="J6" s="3" t="str" cm="1">
+      <c r="J6" t="str" cm="1">
         <f t="array" ref="J6">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K6" s="3" t="str" cm="1">
+      <c r="K6" t="str" cm="1">
         <f t="array" ref="K6">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="3" cm="1">
+        <f t="array" ref="L6">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>250</v>
+      </c>
+      <c r="M6" s="3" cm="1">
+        <f t="array" ref="M6">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>670</v>
+      </c>
+      <c r="N6" s="3" t="str" cm="1">
+        <f t="array" ref="N6">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O6" s="3" t="str" cm="1">
+        <f t="array" ref="O6">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P6" s="3" cm="1">
+        <f t="array" ref="P6">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>250</v>
+      </c>
+      <c r="Q6" s="3" cm="1">
+        <f t="array" ref="Q6">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>670</v>
+      </c>
+      <c r="R6" s="3" t="str" cm="1">
+        <f t="array" ref="R6">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S6" s="3" t="str" cm="1">
+        <f t="array" ref="S6">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1317,20 +1610,52 @@
         <f t="array" ref="H7">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I7" s="3" t="e" cm="1">
+      <c r="I7" t="e" cm="1">
         <f t="array" ref="I7">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J7" s="3" t="e" cm="1">
+      <c r="J7" t="e" cm="1">
         <f t="array" ref="J7">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K7" s="3" t="e" cm="1">
+      <c r="K7" t="e" cm="1">
         <f t="array" ref="K7">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="3" t="e" cm="1">
+        <f t="array" ref="L7">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M7" s="3" t="e" cm="1">
+        <f t="array" ref="M7">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N7" s="3" t="e" cm="1">
+        <f t="array" ref="N7">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O7" s="3" t="e" cm="1">
+        <f t="array" ref="O7">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P7" s="3" t="str" cm="1">
+        <f t="array" ref="P7">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>Not Avaliable</v>
+      </c>
+      <c r="Q7" s="3" t="str" cm="1">
+        <f t="array" ref="Q7">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>Not Avaliable</v>
+      </c>
+      <c r="R7" s="3" t="str" cm="1">
+        <f t="array" ref="R7">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Not Avaliable</v>
+      </c>
+      <c r="S7" s="3" t="str" cm="1">
+        <f t="array" ref="S7">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>Not Avaliable</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1356,20 +1681,52 @@
         <f t="array" ref="H8">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>400</v>
       </c>
-      <c r="I8" s="3" cm="1">
+      <c r="I8" cm="1">
         <f t="array" ref="I8">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>2000</v>
       </c>
-      <c r="J8" s="3" t="str" cm="1">
+      <c r="J8" t="str" cm="1">
         <f t="array" ref="J8">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K8" s="3" t="str" cm="1">
+      <c r="K8" t="str" cm="1">
         <f t="array" ref="K8">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" cm="1">
+        <f t="array" ref="L8">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>400</v>
+      </c>
+      <c r="M8" s="3" cm="1">
+        <f t="array" ref="M8">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>2000</v>
+      </c>
+      <c r="N8" s="3" t="str" cm="1">
+        <f t="array" ref="N8">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O8" s="3" t="str" cm="1">
+        <f t="array" ref="O8">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>INR</v>
+      </c>
+      <c r="P8" s="3" cm="1">
+        <f t="array" ref="P8">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>400</v>
+      </c>
+      <c r="Q8" s="3" cm="1">
+        <f t="array" ref="Q8">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>2000</v>
+      </c>
+      <c r="R8" s="3" t="str" cm="1">
+        <f t="array" ref="R8">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S8" s="3" t="str" cm="1">
+        <f t="array" ref="S8">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>INR</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>108</v>
       </c>
@@ -1395,20 +1752,52 @@
         <f t="array" ref="H9">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>550</v>
       </c>
-      <c r="I9" s="3" cm="1">
+      <c r="I9" cm="1">
         <f t="array" ref="I9">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>4000</v>
       </c>
-      <c r="J9" s="3" t="str" cm="1">
+      <c r="J9" t="str" cm="1">
         <f t="array" ref="J9">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K9" s="3" t="str" cm="1">
+      <c r="K9" t="str" cm="1">
         <f t="array" ref="K9">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" cm="1">
+        <f t="array" ref="L9">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>550</v>
+      </c>
+      <c r="M9" s="3" cm="1">
+        <f t="array" ref="M9">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>4000</v>
+      </c>
+      <c r="N9" s="3" t="str" cm="1">
+        <f t="array" ref="N9">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O9" s="3" t="str" cm="1">
+        <f t="array" ref="O9">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>INR</v>
+      </c>
+      <c r="P9" s="3" cm="1">
+        <f t="array" ref="P9">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>550</v>
+      </c>
+      <c r="Q9" s="3" cm="1">
+        <f t="array" ref="Q9">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>4000</v>
+      </c>
+      <c r="R9" s="3" t="str" cm="1">
+        <f t="array" ref="R9">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S9" s="3" t="str" cm="1">
+        <f t="array" ref="S9">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>INR</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>109</v>
       </c>
@@ -1434,20 +1823,52 @@
         <f t="array" ref="H10">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>390</v>
       </c>
-      <c r="I10" s="3" cm="1">
+      <c r="I10" cm="1">
         <f t="array" ref="I10">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>1360</v>
       </c>
-      <c r="J10" s="3" t="str" cm="1">
+      <c r="J10" t="str" cm="1">
         <f t="array" ref="J10">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K10" s="3" t="str" cm="1">
+      <c r="K10" t="str" cm="1">
         <f t="array" ref="K10">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" cm="1">
+        <f t="array" ref="L10">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>390</v>
+      </c>
+      <c r="M10" s="3" cm="1">
+        <f t="array" ref="M10">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>1360</v>
+      </c>
+      <c r="N10" s="3" t="str" cm="1">
+        <f t="array" ref="N10">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O10" s="3" t="str" cm="1">
+        <f t="array" ref="O10">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>INR</v>
+      </c>
+      <c r="P10" s="3" cm="1">
+        <f t="array" ref="P10">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>390</v>
+      </c>
+      <c r="Q10" s="3" cm="1">
+        <f t="array" ref="Q10">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>1360</v>
+      </c>
+      <c r="R10" s="3" t="str" cm="1">
+        <f t="array" ref="R10">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S10" s="3" t="str" cm="1">
+        <f t="array" ref="S10">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>INR</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>110</v>
       </c>
@@ -1473,20 +1894,52 @@
         <f t="array" ref="H11">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>1.4</v>
       </c>
-      <c r="I11" s="3" cm="1">
+      <c r="I11" cm="1">
         <f t="array" ref="I11">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>3.5</v>
       </c>
-      <c r="J11" s="3" t="str" cm="1">
+      <c r="J11" t="str" cm="1">
         <f t="array" ref="J11">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Billions</v>
       </c>
-      <c r="K11" s="3" t="str" cm="1">
+      <c r="K11" t="str" cm="1">
         <f t="array" ref="K11">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3" cm="1">
+        <f t="array" ref="L11">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>1.4</v>
+      </c>
+      <c r="M11" s="3" cm="1">
+        <f t="array" ref="M11">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>3.5</v>
+      </c>
+      <c r="N11" s="3" t="str" cm="1">
+        <f t="array" ref="N11">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Billions</v>
+      </c>
+      <c r="O11" s="3" t="str" cm="1">
+        <f t="array" ref="O11">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>INR</v>
+      </c>
+      <c r="P11" s="3" cm="1">
+        <f t="array" ref="P11">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q11" s="3" cm="1">
+        <f t="array" ref="Q11">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>3.5</v>
+      </c>
+      <c r="R11" s="3" t="str" cm="1">
+        <f t="array" ref="R11">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Billions</v>
+      </c>
+      <c r="S11" s="3" t="str" cm="1">
+        <f t="array" ref="S11">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>INR</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>111</v>
       </c>
@@ -1512,20 +1965,52 @@
         <f t="array" ref="H12">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="I12" s="3" cm="1">
+      <c r="I12" cm="1">
         <f t="array" ref="I12">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>73.3</v>
       </c>
-      <c r="J12" s="3" t="str" cm="1">
+      <c r="J12" t="str" cm="1">
         <f t="array" ref="J12">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K12" s="3" t="str" cm="1">
+      <c r="K12" t="str" cm="1">
         <f t="array" ref="K12">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" cm="1">
+        <f t="array" ref="L12">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>25</v>
+      </c>
+      <c r="M12" s="3" cm="1">
+        <f t="array" ref="M12">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>73.3</v>
+      </c>
+      <c r="N12" s="3" t="str" cm="1">
+        <f t="array" ref="N12">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O12" s="3" t="str" cm="1">
+        <f t="array" ref="O12">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P12" s="3" cm="1">
+        <f t="array" ref="P12">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>25</v>
+      </c>
+      <c r="Q12" s="3" cm="1">
+        <f t="array" ref="Q12">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>73.3</v>
+      </c>
+      <c r="R12" s="3" t="str" cm="1">
+        <f t="array" ref="R12">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S12" s="3" t="str" cm="1">
+        <f t="array" ref="S12">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>112</v>
       </c>
@@ -1551,20 +2036,52 @@
         <f t="array" ref="H13">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="3" t="e" cm="1">
+      <c r="I13" t="e" cm="1">
         <f t="array" ref="I13">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J13" s="3" t="e" cm="1">
+      <c r="J13" t="e" cm="1">
         <f t="array" ref="J13">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K13" s="3" t="e" cm="1">
+      <c r="K13" t="e" cm="1">
         <f t="array" ref="K13">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3" t="e" cm="1">
+        <f t="array" ref="L13">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M13" s="3" t="e" cm="1">
+        <f t="array" ref="M13">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N13" s="3" t="e" cm="1">
+        <f t="array" ref="N13">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O13" s="3" t="e" cm="1">
+        <f t="array" ref="O13">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P13" s="3" t="str" cm="1">
+        <f t="array" ref="P13">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>Not Avaliable</v>
+      </c>
+      <c r="Q13" s="3" t="str" cm="1">
+        <f t="array" ref="Q13">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>Not Avaliable</v>
+      </c>
+      <c r="R13" s="3" t="str" cm="1">
+        <f t="array" ref="R13">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Not Avaliable</v>
+      </c>
+      <c r="S13" s="3" t="str" cm="1">
+        <f t="array" ref="S13">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>Not Avaliable</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>113</v>
       </c>
@@ -1590,20 +2107,52 @@
         <f t="array" ref="H14">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>165</v>
       </c>
-      <c r="I14" s="3" cm="1">
+      <c r="I14" cm="1">
         <f t="array" ref="I14">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>701.8</v>
       </c>
-      <c r="J14" s="3" t="str" cm="1">
+      <c r="J14" t="str" cm="1">
         <f t="array" ref="J14">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K14" s="3" t="str" cm="1">
+      <c r="K14" t="str" cm="1">
         <f t="array" ref="K14">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" cm="1">
+        <f t="array" ref="L14">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>165</v>
+      </c>
+      <c r="M14" s="3" cm="1">
+        <f t="array" ref="M14">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>701.8</v>
+      </c>
+      <c r="N14" s="3" t="str" cm="1">
+        <f t="array" ref="N14">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O14" s="3" t="str" cm="1">
+        <f t="array" ref="O14">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P14" s="3" cm="1">
+        <f t="array" ref="P14">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>165</v>
+      </c>
+      <c r="Q14" s="3" cm="1">
+        <f t="array" ref="Q14">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>701.8</v>
+      </c>
+      <c r="R14" s="3" t="str" cm="1">
+        <f t="array" ref="R14">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S14" s="3" t="str" cm="1">
+        <f t="array" ref="S14">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>115</v>
       </c>
@@ -1629,20 +2178,52 @@
         <f t="array" ref="H15">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>55</v>
       </c>
-      <c r="I15" s="3" cm="1">
+      <c r="I15" cm="1">
         <f t="array" ref="I15">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>307.10000000000002</v>
       </c>
-      <c r="J15" s="3" t="str" cm="1">
+      <c r="J15" t="str" cm="1">
         <f t="array" ref="J15">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K15" s="3" t="str" cm="1">
+      <c r="K15" t="str" cm="1">
         <f t="array" ref="K15">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" cm="1">
+        <f t="array" ref="L15">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>55</v>
+      </c>
+      <c r="M15" s="3" cm="1">
+        <f t="array" ref="M15">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>307.10000000000002</v>
+      </c>
+      <c r="N15" s="3" t="str" cm="1">
+        <f t="array" ref="N15">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O15" s="3" t="str" cm="1">
+        <f t="array" ref="O15">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P15" s="3" cm="1">
+        <f t="array" ref="P15">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>55</v>
+      </c>
+      <c r="Q15" s="3" cm="1">
+        <f t="array" ref="Q15">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>307.10000000000002</v>
+      </c>
+      <c r="R15" s="3" t="str" cm="1">
+        <f t="array" ref="R15">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S15" s="3" t="str" cm="1">
+        <f t="array" ref="S15">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>116</v>
       </c>
@@ -1668,20 +2249,52 @@
         <f t="array" ref="H16">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>103</v>
       </c>
-      <c r="I16" s="3" cm="1">
+      <c r="I16" cm="1">
         <f t="array" ref="I16">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>460.5</v>
       </c>
-      <c r="J16" s="3" t="str" cm="1">
+      <c r="J16" t="str" cm="1">
         <f t="array" ref="J16">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K16" s="3" t="str" cm="1">
+      <c r="K16" t="str" cm="1">
         <f t="array" ref="K16">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3" cm="1">
+        <f t="array" ref="L16">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>103</v>
+      </c>
+      <c r="M16" s="3" cm="1">
+        <f t="array" ref="M16">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>460.5</v>
+      </c>
+      <c r="N16" s="3" t="str" cm="1">
+        <f t="array" ref="N16">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O16" s="3" t="str" cm="1">
+        <f t="array" ref="O16">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P16" s="3" cm="1">
+        <f t="array" ref="P16">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>103</v>
+      </c>
+      <c r="Q16" s="3" cm="1">
+        <f t="array" ref="Q16">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>460.5</v>
+      </c>
+      <c r="R16" s="3" t="str" cm="1">
+        <f t="array" ref="R16">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S16" s="3" t="str" cm="1">
+        <f t="array" ref="S16">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>117</v>
       </c>
@@ -1707,20 +2320,52 @@
         <f t="array" ref="H17">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="I17" s="3" cm="1">
+      <c r="I17" cm="1">
         <f t="array" ref="I17">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>2202</v>
       </c>
-      <c r="J17" s="3" t="str" cm="1">
+      <c r="J17" t="str" cm="1">
         <f t="array" ref="J17">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K17" s="3" t="str" cm="1">
+      <c r="K17" t="str" cm="1">
         <f t="array" ref="K17">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" cm="1">
+        <f t="array" ref="L17">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>200</v>
+      </c>
+      <c r="M17" s="3" cm="1">
+        <f t="array" ref="M17">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>2202</v>
+      </c>
+      <c r="N17" s="3" t="str" cm="1">
+        <f t="array" ref="N17">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O17" s="3" t="str" cm="1">
+        <f t="array" ref="O17">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P17" s="3" cm="1">
+        <f t="array" ref="P17">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3" cm="1">
+        <f t="array" ref="Q17">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>2202</v>
+      </c>
+      <c r="R17" s="3" t="str" cm="1">
+        <f t="array" ref="R17">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S17" s="3" t="str" cm="1">
+        <f t="array" ref="S17">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>118</v>
       </c>
@@ -1746,20 +2391,52 @@
         <f t="array" ref="H18">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>3.18</v>
       </c>
-      <c r="I18" s="3" cm="1">
+      <c r="I18" cm="1">
         <f t="array" ref="I18">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>3.3</v>
       </c>
-      <c r="J18" s="3" t="str" cm="1">
+      <c r="J18" t="str" cm="1">
         <f t="array" ref="J18">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K18" s="3" t="str" cm="1">
+      <c r="K18" t="str" cm="1">
         <f t="array" ref="K18">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" cm="1">
+        <f t="array" ref="L18">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>3.18</v>
+      </c>
+      <c r="M18" s="3" cm="1">
+        <f t="array" ref="M18">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>3.3</v>
+      </c>
+      <c r="N18" s="3" t="str" cm="1">
+        <f t="array" ref="N18">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O18" s="3" t="str" cm="1">
+        <f t="array" ref="O18">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P18" s="3" cm="1">
+        <f t="array" ref="P18">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>3.18</v>
+      </c>
+      <c r="Q18" s="3" cm="1">
+        <f t="array" ref="Q18">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>3.3</v>
+      </c>
+      <c r="R18" s="3" t="str" cm="1">
+        <f t="array" ref="R18">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S18" s="3" t="str" cm="1">
+        <f t="array" ref="S18">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>119</v>
       </c>
@@ -1785,20 +2462,52 @@
         <f t="array" ref="H19">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>237</v>
       </c>
-      <c r="I19" s="3" cm="1">
+      <c r="I19" cm="1">
         <f t="array" ref="I19">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>2847</v>
       </c>
-      <c r="J19" s="3" t="str" cm="1">
+      <c r="J19" t="str" cm="1">
         <f t="array" ref="J19">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K19" s="3" t="str" cm="1">
+      <c r="K19" t="str" cm="1">
         <f t="array" ref="K19">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3" cm="1">
+        <f t="array" ref="L19">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>237</v>
+      </c>
+      <c r="M19" s="3" cm="1">
+        <f t="array" ref="M19">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>2847</v>
+      </c>
+      <c r="N19" s="3" t="str" cm="1">
+        <f t="array" ref="N19">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O19" s="3" t="str" cm="1">
+        <f t="array" ref="O19">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P19" s="3" cm="1">
+        <f t="array" ref="P19">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>237</v>
+      </c>
+      <c r="Q19" s="3" cm="1">
+        <f t="array" ref="Q19">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>2847</v>
+      </c>
+      <c r="R19" s="3" t="str" cm="1">
+        <f t="array" ref="R19">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S19" s="3" t="str" cm="1">
+        <f t="array" ref="S19">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>120</v>
       </c>
@@ -1824,20 +2533,52 @@
         <f t="array" ref="H20">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>7.2</v>
       </c>
-      <c r="I20" s="3" cm="1">
+      <c r="I20" cm="1">
         <f t="array" ref="I20">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>291</v>
       </c>
-      <c r="J20" s="3" t="str" cm="1">
+      <c r="J20" t="str" cm="1">
         <f t="array" ref="J20">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K20" s="3" t="str" cm="1">
+      <c r="K20" t="str" cm="1">
         <f t="array" ref="K20">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" cm="1">
+        <f t="array" ref="L20">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>7.2</v>
+      </c>
+      <c r="M20" s="3" cm="1">
+        <f t="array" ref="M20">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>291</v>
+      </c>
+      <c r="N20" s="3" t="str" cm="1">
+        <f t="array" ref="N20">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O20" s="3" t="str" cm="1">
+        <f t="array" ref="O20">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P20" s="3" cm="1">
+        <f t="array" ref="P20">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>7.2</v>
+      </c>
+      <c r="Q20" s="3" cm="1">
+        <f t="array" ref="Q20">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>291</v>
+      </c>
+      <c r="R20" s="3" t="str" cm="1">
+        <f t="array" ref="R20">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S20" s="3" t="str" cm="1">
+        <f t="array" ref="S20">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>121</v>
       </c>
@@ -1863,20 +2604,52 @@
         <f t="array" ref="H21">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>185</v>
       </c>
-      <c r="I21" s="3" cm="1">
+      <c r="I21" cm="1">
         <f t="array" ref="I21">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>1006</v>
       </c>
-      <c r="J21" s="3" t="str" cm="1">
+      <c r="J21" t="str" cm="1">
         <f t="array" ref="J21">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K21" s="3" t="str" cm="1">
+      <c r="K21" t="str" cm="1">
         <f t="array" ref="K21">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" cm="1">
+        <f t="array" ref="L21">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>185</v>
+      </c>
+      <c r="M21" s="3" cm="1">
+        <f t="array" ref="M21">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>1006</v>
+      </c>
+      <c r="N21" s="3" t="str" cm="1">
+        <f t="array" ref="N21">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O21" s="3" t="str" cm="1">
+        <f t="array" ref="O21">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P21" s="3" cm="1">
+        <f t="array" ref="P21">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>185</v>
+      </c>
+      <c r="Q21" s="3" cm="1">
+        <f t="array" ref="Q21">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>1006</v>
+      </c>
+      <c r="R21" s="3" t="str" cm="1">
+        <f t="array" ref="R21">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S21" s="3" t="str" cm="1">
+        <f t="array" ref="S21">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>122</v>
       </c>
@@ -1902,20 +2675,52 @@
         <f t="array" ref="H22">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>22</v>
       </c>
-      <c r="I22" s="3" cm="1">
+      <c r="I22" cm="1">
         <f t="array" ref="I22">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>322.2</v>
       </c>
-      <c r="J22" s="3" t="str" cm="1">
+      <c r="J22" t="str" cm="1">
         <f t="array" ref="J22">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K22" s="3" t="str" cm="1">
+      <c r="K22" t="str" cm="1">
         <f t="array" ref="K22">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" cm="1">
+        <f t="array" ref="L22">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>22</v>
+      </c>
+      <c r="M22" s="3" cm="1">
+        <f t="array" ref="M22">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>322.2</v>
+      </c>
+      <c r="N22" s="3" t="str" cm="1">
+        <f t="array" ref="N22">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O22" s="3" t="str" cm="1">
+        <f t="array" ref="O22">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P22" s="3" cm="1">
+        <f t="array" ref="P22">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>22</v>
+      </c>
+      <c r="Q22" s="3" cm="1">
+        <f t="array" ref="Q22">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>322.2</v>
+      </c>
+      <c r="R22" s="3" t="str" cm="1">
+        <f t="array" ref="R22">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S22" s="3" t="str" cm="1">
+        <f t="array" ref="S22">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>123</v>
       </c>
@@ -1941,20 +2746,52 @@
         <f t="array" ref="H23">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>63</v>
       </c>
-      <c r="I23" s="3" cm="1">
+      <c r="I23" cm="1">
         <f t="array" ref="I23">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>1046</v>
       </c>
-      <c r="J23" s="3" t="str" cm="1">
+      <c r="J23" t="str" cm="1">
         <f t="array" ref="J23">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K23" s="3" t="str" cm="1">
+      <c r="K23" t="str" cm="1">
         <f t="array" ref="K23">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" cm="1">
+        <f t="array" ref="L23">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>63</v>
+      </c>
+      <c r="M23" s="3" cm="1">
+        <f t="array" ref="M23">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>1046</v>
+      </c>
+      <c r="N23" s="3" t="str" cm="1">
+        <f t="array" ref="N23">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O23" s="3" t="str" cm="1">
+        <f t="array" ref="O23">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P23" s="3" cm="1">
+        <f t="array" ref="P23">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>63</v>
+      </c>
+      <c r="Q23" s="3" cm="1">
+        <f t="array" ref="Q23">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>1046</v>
+      </c>
+      <c r="R23" s="3" t="str" cm="1">
+        <f t="array" ref="R23">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S23" s="3" t="str" cm="1">
+        <f t="array" ref="S23">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>124</v>
       </c>
@@ -1980,20 +2817,52 @@
         <f t="array" ref="H24">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>15.5</v>
       </c>
-      <c r="I24" s="3" cm="1">
+      <c r="I24" cm="1">
         <f t="array" ref="I24">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>263.10000000000002</v>
       </c>
-      <c r="J24" s="3" t="str" cm="1">
+      <c r="J24" t="str" cm="1">
         <f t="array" ref="J24">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K24" s="3" t="str" cm="1">
+      <c r="K24" t="str" cm="1">
         <f t="array" ref="K24">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" cm="1">
+        <f t="array" ref="L24">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>15.5</v>
+      </c>
+      <c r="M24" s="3" cm="1">
+        <f t="array" ref="M24">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>263.10000000000002</v>
+      </c>
+      <c r="N24" s="3" t="str" cm="1">
+        <f t="array" ref="N24">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O24" s="3" t="str" cm="1">
+        <f t="array" ref="O24">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P24" s="3" cm="1">
+        <f t="array" ref="P24">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>15.5</v>
+      </c>
+      <c r="Q24" s="3" cm="1">
+        <f t="array" ref="Q24">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>263.10000000000002</v>
+      </c>
+      <c r="R24" s="3" t="str" cm="1">
+        <f t="array" ref="R24">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S24" s="3" t="str" cm="1">
+        <f t="array" ref="S24">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>125</v>
       </c>
@@ -2019,20 +2888,52 @@
         <f t="array" ref="H25">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>400</v>
       </c>
-      <c r="I25" s="3" cm="1">
+      <c r="I25" cm="1">
         <f t="array" ref="I25">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>2798</v>
       </c>
-      <c r="J25" s="3" t="str" cm="1">
+      <c r="J25" t="str" cm="1">
         <f t="array" ref="J25">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K25" s="3" t="str" cm="1">
+      <c r="K25" t="str" cm="1">
         <f t="array" ref="K25">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3" cm="1">
+        <f t="array" ref="L25">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>400</v>
+      </c>
+      <c r="M25" s="3" cm="1">
+        <f t="array" ref="M25">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>2798</v>
+      </c>
+      <c r="N25" s="3" t="str" cm="1">
+        <f t="array" ref="N25">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O25" s="3" t="str" cm="1">
+        <f t="array" ref="O25">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P25" s="3" cm="1">
+        <f t="array" ref="P25">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>400</v>
+      </c>
+      <c r="Q25" s="3" cm="1">
+        <f t="array" ref="Q25">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>2798</v>
+      </c>
+      <c r="R25" s="3" t="str" cm="1">
+        <f t="array" ref="R25">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S25" s="3" t="str" cm="1">
+        <f t="array" ref="S25">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>126</v>
       </c>
@@ -2058,20 +2959,52 @@
         <f t="array" ref="H26">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>400</v>
       </c>
-      <c r="I26" s="3" cm="1">
+      <c r="I26" cm="1">
         <f t="array" ref="I26">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>2048</v>
       </c>
-      <c r="J26" s="3" t="str" cm="1">
+      <c r="J26" t="str" cm="1">
         <f t="array" ref="J26">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K26" s="3" t="str" cm="1">
+      <c r="K26" t="str" cm="1">
         <f t="array" ref="K26">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" cm="1">
+        <f t="array" ref="L26">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>400</v>
+      </c>
+      <c r="M26" s="3" cm="1">
+        <f t="array" ref="M26">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>2048</v>
+      </c>
+      <c r="N26" s="3" t="str" cm="1">
+        <f t="array" ref="N26">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O26" s="3" t="str" cm="1">
+        <f t="array" ref="O26">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P26" s="3" cm="1">
+        <f t="array" ref="P26">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>400</v>
+      </c>
+      <c r="Q26" s="3" cm="1">
+        <f t="array" ref="Q26">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>2048</v>
+      </c>
+      <c r="R26" s="3" t="str" cm="1">
+        <f t="array" ref="R26">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S26" s="3" t="str" cm="1">
+        <f t="array" ref="S26">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>127</v>
       </c>
@@ -2097,20 +3030,52 @@
         <f t="array" ref="H27">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="I27" s="3" cm="1">
+      <c r="I27" cm="1">
         <f t="array" ref="I27">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="J27" s="3" t="str" cm="1">
+      <c r="J27" t="str" cm="1">
         <f t="array" ref="J27">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K27" s="3" t="str" cm="1">
+      <c r="K27" t="str" cm="1">
         <f t="array" ref="K27">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" cm="1">
+        <f t="array" ref="L27">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>70</v>
+      </c>
+      <c r="M27" s="3" cm="1">
+        <f t="array" ref="M27">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>100</v>
+      </c>
+      <c r="N27" s="3" t="str" cm="1">
+        <f t="array" ref="N27">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O27" s="3" t="str" cm="1">
+        <f t="array" ref="O27">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>INR</v>
+      </c>
+      <c r="P27" s="3" cm="1">
+        <f t="array" ref="P27">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>70</v>
+      </c>
+      <c r="Q27" s="3" cm="1">
+        <f t="array" ref="Q27">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>100</v>
+      </c>
+      <c r="R27" s="3" t="str" cm="1">
+        <f t="array" ref="R27">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S27" s="3" t="str" cm="1">
+        <f t="array" ref="S27">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>INR</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>128</v>
       </c>
@@ -2136,20 +3101,52 @@
         <f t="array" ref="H28">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>120</v>
       </c>
-      <c r="I28" s="3" cm="1">
+      <c r="I28" cm="1">
         <f t="array" ref="I28">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>1350</v>
       </c>
-      <c r="J28" s="3" t="str" cm="1">
+      <c r="J28" t="str" cm="1">
         <f t="array" ref="J28">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K28" s="3" t="str" cm="1">
+      <c r="K28" t="str" cm="1">
         <f t="array" ref="K28">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3" cm="1">
+        <f t="array" ref="L28">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>120</v>
+      </c>
+      <c r="M28" s="3" cm="1">
+        <f t="array" ref="M28">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>1350</v>
+      </c>
+      <c r="N28" s="3" t="str" cm="1">
+        <f t="array" ref="N28">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O28" s="3" t="str" cm="1">
+        <f t="array" ref="O28">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>INR</v>
+      </c>
+      <c r="P28" s="3" cm="1">
+        <f t="array" ref="P28">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>120</v>
+      </c>
+      <c r="Q28" s="3" cm="1">
+        <f t="array" ref="Q28">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>1350</v>
+      </c>
+      <c r="R28" s="3" t="str" cm="1">
+        <f t="array" ref="R28">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S28" s="3" t="str" cm="1">
+        <f t="array" ref="S28">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>INR</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>129</v>
       </c>
@@ -2175,20 +3172,52 @@
         <f t="array" ref="H29">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="I29" s="3" cm="1">
+      <c r="I29" cm="1">
         <f t="array" ref="I29">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>410</v>
       </c>
-      <c r="J29" s="3" t="str" cm="1">
+      <c r="J29" t="str" cm="1">
         <f t="array" ref="J29">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K29" s="3" t="str" cm="1">
+      <c r="K29" t="str" cm="1">
         <f t="array" ref="K29">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" cm="1">
+        <f t="array" ref="L29">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>100</v>
+      </c>
+      <c r="M29" s="3" cm="1">
+        <f t="array" ref="M29">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>410</v>
+      </c>
+      <c r="N29" s="3" t="str" cm="1">
+        <f t="array" ref="N29">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O29" s="3" t="str" cm="1">
+        <f t="array" ref="O29">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>INR</v>
+      </c>
+      <c r="P29" s="3" cm="1">
+        <f t="array" ref="P29">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>100</v>
+      </c>
+      <c r="Q29" s="3" cm="1">
+        <f t="array" ref="Q29">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>410</v>
+      </c>
+      <c r="R29" s="3" t="str" cm="1">
+        <f t="array" ref="R29">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S29" s="3" t="str" cm="1">
+        <f t="array" ref="S29">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>INR</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>130</v>
       </c>
@@ -2214,20 +3243,52 @@
         <f t="array" ref="H30">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>850</v>
       </c>
-      <c r="I30" s="3" cm="1">
+      <c r="I30" cm="1">
         <f t="array" ref="I30">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>8540</v>
       </c>
-      <c r="J30" s="3" t="str" cm="1">
+      <c r="J30" t="str" cm="1">
         <f t="array" ref="J30">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K30" s="3" t="str" cm="1">
+      <c r="K30" t="str" cm="1">
         <f t="array" ref="K30">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3" cm="1">
+        <f t="array" ref="L30">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>850</v>
+      </c>
+      <c r="M30" s="3" cm="1">
+        <f t="array" ref="M30">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>8540</v>
+      </c>
+      <c r="N30" s="3" t="str" cm="1">
+        <f t="array" ref="N30">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O30" s="3" t="str" cm="1">
+        <f t="array" ref="O30">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>INR</v>
+      </c>
+      <c r="P30" s="3" cm="1">
+        <f t="array" ref="P30">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>850</v>
+      </c>
+      <c r="Q30" s="3" cm="1">
+        <f t="array" ref="Q30">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>8540</v>
+      </c>
+      <c r="R30" s="3" t="str" cm="1">
+        <f t="array" ref="R30">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S30" s="3" t="str" cm="1">
+        <f t="array" ref="S30">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>INR</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>131</v>
       </c>
@@ -2253,20 +3314,52 @@
         <f t="array" ref="H31">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I31" s="3" cm="1">
+      <c r="I31" cm="1">
         <f t="array" ref="I31">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>5.9</v>
       </c>
-      <c r="J31" s="3" t="str" cm="1">
+      <c r="J31" t="str" cm="1">
         <f t="array" ref="J31">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Billions</v>
       </c>
-      <c r="K31" s="3" t="str" cm="1">
+      <c r="K31" t="str" cm="1">
         <f t="array" ref="K31">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3" cm="1">
+        <f t="array" ref="L31">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>1</v>
+      </c>
+      <c r="M31" s="3" cm="1">
+        <f t="array" ref="M31">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>5.9</v>
+      </c>
+      <c r="N31" s="3" t="str" cm="1">
+        <f t="array" ref="N31">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Billions</v>
+      </c>
+      <c r="O31" s="3" t="str" cm="1">
+        <f t="array" ref="O31">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>INR</v>
+      </c>
+      <c r="P31" s="3" cm="1">
+        <f t="array" ref="P31">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q31" s="3" cm="1">
+        <f t="array" ref="Q31">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>5.9</v>
+      </c>
+      <c r="R31" s="3" t="str" cm="1">
+        <f t="array" ref="R31">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Billions</v>
+      </c>
+      <c r="S31" s="3" t="str" cm="1">
+        <f t="array" ref="S31">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>INR</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>132</v>
       </c>
@@ -2292,20 +3385,52 @@
         <f t="array" ref="H32">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="I32" s="3" cm="1">
+      <c r="I32" cm="1">
         <f t="array" ref="I32">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>3.6</v>
       </c>
-      <c r="J32" s="3" t="str" cm="1">
+      <c r="J32" t="str" cm="1">
         <f t="array" ref="J32">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Billions</v>
       </c>
-      <c r="K32" s="3" t="str" cm="1">
+      <c r="K32" t="str" cm="1">
         <f t="array" ref="K32">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" cm="1">
+        <f t="array" ref="L32">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>2</v>
+      </c>
+      <c r="M32" s="3" cm="1">
+        <f t="array" ref="M32">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>3.6</v>
+      </c>
+      <c r="N32" s="3" t="str" cm="1">
+        <f t="array" ref="N32">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Billions</v>
+      </c>
+      <c r="O32" s="3" t="str" cm="1">
+        <f t="array" ref="O32">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>INR</v>
+      </c>
+      <c r="P32" s="3" cm="1">
+        <f t="array" ref="P32">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q32" s="3" cm="1">
+        <f t="array" ref="Q32">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>3.6</v>
+      </c>
+      <c r="R32" s="3" t="str" cm="1">
+        <f t="array" ref="R32">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Billions</v>
+      </c>
+      <c r="S32" s="3" t="str" cm="1">
+        <f t="array" ref="S32">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>INR</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>133</v>
       </c>
@@ -2331,20 +3456,52 @@
         <f t="array" ref="H33">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>5.5</v>
       </c>
-      <c r="I33" s="3" cm="1">
+      <c r="I33" cm="1">
         <f t="array" ref="I33">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="J33" s="3" t="str" cm="1">
+      <c r="J33" t="str" cm="1">
         <f t="array" ref="J33">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Billions</v>
       </c>
-      <c r="K33" s="3" t="str" cm="1">
+      <c r="K33" t="str" cm="1">
         <f t="array" ref="K33">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" cm="1">
+        <f t="array" ref="L33">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>5.5</v>
+      </c>
+      <c r="M33" s="3" cm="1">
+        <f t="array" ref="M33">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>12</v>
+      </c>
+      <c r="N33" s="3" t="str" cm="1">
+        <f t="array" ref="N33">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Billions</v>
+      </c>
+      <c r="O33" s="3" t="str" cm="1">
+        <f t="array" ref="O33">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>INR</v>
+      </c>
+      <c r="P33" s="3" cm="1">
+        <f t="array" ref="P33">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>5.5</v>
+      </c>
+      <c r="Q33" s="3" cm="1">
+        <f t="array" ref="Q33">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>12</v>
+      </c>
+      <c r="R33" s="3" t="str" cm="1">
+        <f t="array" ref="R33">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Billions</v>
+      </c>
+      <c r="S33" s="3" t="str" cm="1">
+        <f t="array" ref="S33">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>INR</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>134</v>
       </c>
@@ -2370,20 +3527,52 @@
         <f t="array" ref="H34">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>1.8</v>
       </c>
-      <c r="I34" s="3" cm="1">
+      <c r="I34" cm="1">
         <f t="array" ref="I34">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>6.5</v>
       </c>
-      <c r="J34" s="3" t="str" cm="1">
+      <c r="J34" t="str" cm="1">
         <f t="array" ref="J34">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Billions</v>
       </c>
-      <c r="K34" s="3" t="str" cm="1">
+      <c r="K34" t="str" cm="1">
         <f t="array" ref="K34">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3" cm="1">
+        <f t="array" ref="L34">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>1.8</v>
+      </c>
+      <c r="M34" s="3" cm="1">
+        <f t="array" ref="M34">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>6.5</v>
+      </c>
+      <c r="N34" s="3" t="str" cm="1">
+        <f t="array" ref="N34">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Billions</v>
+      </c>
+      <c r="O34" s="3" t="str" cm="1">
+        <f t="array" ref="O34">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>INR</v>
+      </c>
+      <c r="P34" s="3" cm="1">
+        <f t="array" ref="P34">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>1.8</v>
+      </c>
+      <c r="Q34" s="3" cm="1">
+        <f t="array" ref="Q34">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>6.5</v>
+      </c>
+      <c r="R34" s="3" t="str" cm="1">
+        <f t="array" ref="R34">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Billions</v>
+      </c>
+      <c r="S34" s="3" t="str" cm="1">
+        <f t="array" ref="S34">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>INR</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>135</v>
       </c>
@@ -2409,20 +3598,52 @@
         <f t="array" ref="H35">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>250</v>
       </c>
-      <c r="I35" s="3" cm="1">
+      <c r="I35" cm="1">
         <f t="array" ref="I35">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>3409</v>
       </c>
-      <c r="J35" s="3" t="str" cm="1">
+      <c r="J35" t="str" cm="1">
         <f t="array" ref="J35">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K35" s="3" t="str" cm="1">
+      <c r="K35" t="str" cm="1">
         <f t="array" ref="K35">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" cm="1">
+        <f t="array" ref="L35">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>250</v>
+      </c>
+      <c r="M35" s="3" cm="1">
+        <f t="array" ref="M35">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>3409</v>
+      </c>
+      <c r="N35" s="3" t="str" cm="1">
+        <f t="array" ref="N35">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O35" s="3" t="str" cm="1">
+        <f t="array" ref="O35">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>INR</v>
+      </c>
+      <c r="P35" s="3" cm="1">
+        <f t="array" ref="P35">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>250</v>
+      </c>
+      <c r="Q35" s="3" cm="1">
+        <f t="array" ref="Q35">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>3409</v>
+      </c>
+      <c r="R35" s="3" t="str" cm="1">
+        <f t="array" ref="R35">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S35" s="3" t="str" cm="1">
+        <f t="array" ref="S35">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>INR</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>136</v>
       </c>
@@ -2448,20 +3669,52 @@
         <f t="array" ref="H36">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="I36" s="3" cm="1">
+      <c r="I36" cm="1">
         <f t="array" ref="I36">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>11690</v>
       </c>
-      <c r="J36" s="3" t="str" cm="1">
+      <c r="J36" t="str" cm="1">
         <f t="array" ref="J36">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K36" s="3" t="str" cm="1">
+      <c r="K36" t="str" cm="1">
         <f t="array" ref="K36">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36" s="3" cm="1">
+        <f t="array" ref="L36">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>900</v>
+      </c>
+      <c r="M36" s="3" cm="1">
+        <f t="array" ref="M36">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>11690</v>
+      </c>
+      <c r="N36" s="3" t="str" cm="1">
+        <f t="array" ref="N36">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O36" s="3" t="str" cm="1">
+        <f t="array" ref="O36">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>INR</v>
+      </c>
+      <c r="P36" s="3" cm="1">
+        <f t="array" ref="P36">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>900</v>
+      </c>
+      <c r="Q36" s="3" cm="1">
+        <f t="array" ref="Q36">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>11690</v>
+      </c>
+      <c r="R36" s="3" t="str" cm="1">
+        <f t="array" ref="R36">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S36" s="3" t="str" cm="1">
+        <f t="array" ref="S36">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>INR</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>137</v>
       </c>
@@ -2487,20 +3740,52 @@
         <f t="array" ref="H37">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>216.7</v>
       </c>
-      <c r="I37" s="3" cm="1">
+      <c r="I37" cm="1">
         <f t="array" ref="I37">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>370.6</v>
       </c>
-      <c r="J37" s="3" t="str" cm="1">
+      <c r="J37" t="str" cm="1">
         <f t="array" ref="J37">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K37" s="3" t="str" cm="1">
+      <c r="K37" t="str" cm="1">
         <f t="array" ref="K37">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" s="3" cm="1">
+        <f t="array" ref="L37">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>216.7</v>
+      </c>
+      <c r="M37" s="3" cm="1">
+        <f t="array" ref="M37">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>370.6</v>
+      </c>
+      <c r="N37" s="3" t="str" cm="1">
+        <f t="array" ref="N37">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O37" s="3" t="str" cm="1">
+        <f t="array" ref="O37">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P37" s="3" cm="1">
+        <f t="array" ref="P37">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>216.7</v>
+      </c>
+      <c r="Q37" s="3" cm="1">
+        <f t="array" ref="Q37">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>370.6</v>
+      </c>
+      <c r="R37" s="3" t="str" cm="1">
+        <f t="array" ref="R37">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S37" s="3" t="str" cm="1">
+        <f t="array" ref="S37">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>138</v>
       </c>
@@ -2526,20 +3811,52 @@
         <f t="array" ref="H38">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>177</v>
       </c>
-      <c r="I38" s="3" cm="1">
+      <c r="I38" cm="1">
         <f t="array" ref="I38">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>714.4</v>
       </c>
-      <c r="J38" s="3" t="str" cm="1">
+      <c r="J38" t="str" cm="1">
         <f t="array" ref="J38">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K38" s="3" t="str" cm="1">
+      <c r="K38" t="str" cm="1">
         <f t="array" ref="K38">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="3" cm="1">
+        <f t="array" ref="L38">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>177</v>
+      </c>
+      <c r="M38" s="3" cm="1">
+        <f t="array" ref="M38">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>714.4</v>
+      </c>
+      <c r="N38" s="3" t="str" cm="1">
+        <f t="array" ref="N38">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O38" s="3" t="str" cm="1">
+        <f t="array" ref="O38">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>USD</v>
+      </c>
+      <c r="P38" s="3" cm="1">
+        <f t="array" ref="P38">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>177</v>
+      </c>
+      <c r="Q38" s="3" cm="1">
+        <f t="array" ref="Q38">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>714.4</v>
+      </c>
+      <c r="R38" s="3" t="str" cm="1">
+        <f t="array" ref="R38">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S38" s="3" t="str" cm="1">
+        <f t="array" ref="S38">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>139</v>
       </c>
@@ -2565,20 +3882,52 @@
         <f t="array" ref="H39">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>1.8</v>
       </c>
-      <c r="I39" s="3" cm="1">
+      <c r="I39" cm="1">
         <f t="array" ref="I39">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>3.1</v>
       </c>
-      <c r="J39" s="3" t="str" cm="1">
+      <c r="J39" t="str" cm="1">
         <f t="array" ref="J39">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Billions</v>
       </c>
-      <c r="K39" s="3" t="str" cm="1">
+      <c r="K39" t="str" cm="1">
         <f t="array" ref="K39">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3" cm="1">
+        <f t="array" ref="L39">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>1.8</v>
+      </c>
+      <c r="M39" s="3" cm="1">
+        <f t="array" ref="M39">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>3.1</v>
+      </c>
+      <c r="N39" s="3" t="str" cm="1">
+        <f t="array" ref="N39">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Billions</v>
+      </c>
+      <c r="O39" s="3" t="str" cm="1">
+        <f t="array" ref="O39">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>INR</v>
+      </c>
+      <c r="P39" s="3" cm="1">
+        <f t="array" ref="P39">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>1.8</v>
+      </c>
+      <c r="Q39" s="3" cm="1">
+        <f t="array" ref="Q39">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>3.1</v>
+      </c>
+      <c r="R39" s="3" t="str" cm="1">
+        <f t="array" ref="R39">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Billions</v>
+      </c>
+      <c r="S39" s="3" t="str" cm="1">
+        <f t="array" ref="S39">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>INR</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>140</v>
       </c>
@@ -2604,22 +3953,54 @@
         <f t="array" ref="H40">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],2,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="I40" s="3" cm="1">
+      <c r="I40" cm="1">
         <f t="array" ref="I40">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],3,FALSE)</f>
         <v>950</v>
       </c>
-      <c r="J40" s="3" t="str" cm="1">
+      <c r="J40" t="str" cm="1">
         <f t="array" ref="J40">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],4,FALSE)</f>
         <v>Millions</v>
       </c>
-      <c r="K40" s="3" t="str" cm="1">
+      <c r="K40" t="str" cm="1">
         <f t="array" ref="K40">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
+      <c r="L40" s="3" cm="1">
+        <f t="array" ref="L40">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
+        <v>500</v>
+      </c>
+      <c r="M40" s="3" cm="1">
+        <f t="array" ref="M40">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
+        <v>950</v>
+      </c>
+      <c r="N40" s="3" t="str" cm="1">
+        <f t="array" ref="N40">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
+        <v>Millions</v>
+      </c>
+      <c r="O40" s="3" t="str" cm="1">
+        <f t="array" ref="O40">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
+        <v>INR</v>
+      </c>
+      <c r="P40" s="3" cm="1">
+        <f t="array" ref="P40">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
+        <v>500</v>
+      </c>
+      <c r="Q40" s="3" cm="1">
+        <f t="array" ref="Q40">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
+        <v>950</v>
+      </c>
+      <c r="R40" s="3" t="str" cm="1">
+        <f t="array" ref="R40">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
+        <v>Millions</v>
+      </c>
+      <c r="S40" s="3" t="str" cm="1">
+        <f t="array" ref="S40">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
+        <v>INR</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B40">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2633,8 +4014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF951C0-D968-407B-BACE-9EC26BF67B79}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4910,6 +6291,80 @@
       </c>
       <c r="B9" t="s">
         <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C636C482-D61A-B546-8FA8-83883F2FCCEE}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f>INDEX(Table6[],2,2)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f>MATCH("samosa",Table6[Item],0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f>MATCH("Price",Table6[#Headers],0)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Components/Excel/Movies_DB/movies_db_uncleaned copy.xlsx
+++ b/Components/Excel/Movies_DB/movies_db_uncleaned copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ded4e9b9b367109/Data_Science_Prep/Components/Excel/Movies_DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{003C6DE2-9C34-4C76-93DE-71AEC1AF9F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B47463AC-3531-F241-978F-13BFAEDCF848}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{003C6DE2-9C34-4C76-93DE-71AEC1AF9F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC094630-2CEE-0D4E-BC21-E25111AD8D49}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -624,40 +624,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -715,6 +690,30 @@
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -792,28 +791,28 @@
     <tableColumn id="16" xr3:uid="{95CFA2F0-EC01-5943-9EF5-BCCBEDE16CA9}" name="Currency_vlookup" dataDxfId="13">
       <calculatedColumnFormula array="1">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F3248E19-FD0F-9943-9880-A349C75F7111}" name="budget" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{F3248E19-FD0F-9943-9880-A349C75F7111}" name="budget" dataDxfId="12">
       <calculatedColumnFormula array="1">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A2CFE296-EA56-D440-A966-008013216BFD}" name="revenue" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{A2CFE296-EA56-D440-A966-008013216BFD}" name="revenue" dataDxfId="11">
       <calculatedColumnFormula array="1">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A6078832-C997-244F-A293-535C47C33182}" name="unit" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{A6078832-C997-244F-A293-535C47C33182}" name="unit" dataDxfId="10">
       <calculatedColumnFormula array="1">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{67269A5D-F202-544A-B8FB-1FA93ABFFB5F}" name="currency" dataDxfId="5">
+    <tableColumn id="11" xr3:uid="{67269A5D-F202-544A-B8FB-1FA93ABFFB5F}" name="currency" dataDxfId="9">
       <calculatedColumnFormula array="1">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{597BA684-7E81-4541-A597-60EE625B3138}" name="budget2" dataDxfId="0">
+    <tableColumn id="13" xr3:uid="{597BA684-7E81-4541-A597-60EE625B3138}" name="budget2" dataDxfId="8">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A15EBEA4-9FBA-BF4F-8950-4351FCD151F4}" name="revenue2" dataDxfId="3">
+    <tableColumn id="17" xr3:uid="{A15EBEA4-9FBA-BF4F-8950-4351FCD151F4}" name="revenue2" dataDxfId="7">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{650297CE-7CBA-D941-AFDC-31B755E911DF}" name="unit2" dataDxfId="2">
+    <tableColumn id="18" xr3:uid="{650297CE-7CBA-D941-AFDC-31B755E911DF}" name="unit2" dataDxfId="6">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{0B5A0962-9389-6F47-93F4-B5DC3C98C2B3}" name="currency2" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{0B5A0962-9389-6F47-93F4-B5DC3C98C2B3}" name="currency2" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -822,7 +821,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}" name="Financials" displayName="Financials" ref="A1:E41" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}" name="Financials" displayName="Financials" ref="A1:E41" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:E41" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1A9B0F4-FC15-4DC9-80C7-7EBF56996521}" name="movie_id"/>
@@ -836,7 +835,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}" name="actors" displayName="actors" ref="A1:C68" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}" name="actors" displayName="actors" ref="A1:C68" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:C68" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{17C41506-36D4-4294-9829-5A0C52DE3455}" name="actor_id"/>
@@ -848,7 +847,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}" name="movieactor" displayName="movieactor" ref="A1:B86" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}" name="movieactor" displayName="movieactor" ref="A1:B86" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:B86" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{726AA249-607F-4CEE-9C80-419BD67B7D42}" name="movie_id"/>
@@ -859,7 +858,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}" name="languages" displayName="languages" ref="A1:B9" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}" name="languages" displayName="languages" ref="A1:B9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:B9" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E256DBAD-6FC6-4A32-8A1D-C74A5F599F74}" name="language_id"/>
@@ -1145,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1267,35 +1266,35 @@
         <f t="array" ref="K2">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-      <c r="L2" s="3" cm="1">
+      <c r="L2" cm="1">
         <f t="array" ref="L2">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>1</v>
       </c>
-      <c r="M2" s="3" cm="1">
+      <c r="M2" cm="1">
         <f t="array" ref="M2">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>12.5</v>
       </c>
-      <c r="N2" s="3" t="str" cm="1">
+      <c r="N2" t="str" cm="1">
         <f t="array" ref="N2">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Billions</v>
       </c>
-      <c r="O2" s="3" t="str" cm="1">
+      <c r="O2" t="str" cm="1">
         <f t="array" ref="O2">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>INR</v>
       </c>
-      <c r="P2" s="3" cm="1">
+      <c r="P2" cm="1">
         <f t="array" ref="P2">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>1</v>
       </c>
-      <c r="Q2" s="3" cm="1">
+      <c r="Q2" cm="1">
         <f t="array" ref="Q2">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>12.5</v>
       </c>
-      <c r="R2" s="3" t="str" cm="1">
+      <c r="R2" t="str" cm="1">
         <f t="array" ref="R2">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Billions</v>
       </c>
-      <c r="S2" s="3" t="str" cm="1">
+      <c r="S2" t="str" cm="1">
         <f t="array" ref="S2">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
@@ -1338,35 +1337,35 @@
         <f t="array" ref="K3">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L3" s="3" cm="1">
+      <c r="L3" cm="1">
         <f t="array" ref="L3">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>200</v>
       </c>
-      <c r="M3" s="3" cm="1">
+      <c r="M3" cm="1">
         <f t="array" ref="M3">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>954.8</v>
       </c>
-      <c r="N3" s="3" t="str" cm="1">
+      <c r="N3" t="str" cm="1">
         <f t="array" ref="N3">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O3" s="3" t="str" cm="1">
+      <c r="O3" t="str" cm="1">
         <f t="array" ref="O3">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P3" s="3" cm="1">
+      <c r="P3" cm="1">
         <f t="array" ref="P3">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>200</v>
       </c>
-      <c r="Q3" s="3" cm="1">
+      <c r="Q3" cm="1">
         <f t="array" ref="Q3">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>954.8</v>
       </c>
-      <c r="R3" s="3" t="str" cm="1">
+      <c r="R3" t="str" cm="1">
         <f t="array" ref="R3">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S3" s="3" t="str" cm="1">
+      <c r="S3" t="str" cm="1">
         <f t="array" ref="S3">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -1409,35 +1408,35 @@
         <f t="array" ref="K4">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L4" s="3" cm="1">
+      <c r="L4" cm="1">
         <f t="array" ref="L4">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>165</v>
       </c>
-      <c r="M4" s="3" cm="1">
+      <c r="M4" cm="1">
         <f t="array" ref="M4">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>644.79999999999995</v>
       </c>
-      <c r="N4" s="3" t="str" cm="1">
+      <c r="N4" t="str" cm="1">
         <f t="array" ref="N4">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O4" s="3" t="str" cm="1">
+      <c r="O4" t="str" cm="1">
         <f t="array" ref="O4">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P4" s="3" cm="1">
+      <c r="P4" cm="1">
         <f t="array" ref="P4">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>165</v>
       </c>
-      <c r="Q4" s="3" cm="1">
+      <c r="Q4" cm="1">
         <f t="array" ref="Q4">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>644.79999999999995</v>
       </c>
-      <c r="R4" s="3" t="str" cm="1">
+      <c r="R4" t="str" cm="1">
         <f t="array" ref="R4">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S4" s="3" t="str" cm="1">
+      <c r="S4" t="str" cm="1">
         <f t="array" ref="S4">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -1480,35 +1479,35 @@
         <f t="array" ref="K5">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L5" s="3" cm="1">
+      <c r="L5" cm="1">
         <f t="array" ref="L5">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>180</v>
       </c>
-      <c r="M5" s="3" cm="1">
+      <c r="M5" cm="1">
         <f t="array" ref="M5">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>854</v>
       </c>
-      <c r="N5" s="3" t="str" cm="1">
+      <c r="N5" t="str" cm="1">
         <f t="array" ref="N5">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O5" s="3" t="str" cm="1">
+      <c r="O5" t="str" cm="1">
         <f t="array" ref="O5">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P5" s="3" cm="1">
+      <c r="P5" cm="1">
         <f t="array" ref="P5">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>180</v>
       </c>
-      <c r="Q5" s="3" cm="1">
+      <c r="Q5" cm="1">
         <f t="array" ref="Q5">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>854</v>
       </c>
-      <c r="R5" s="3" t="str" cm="1">
+      <c r="R5" t="str" cm="1">
         <f t="array" ref="R5">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S5" s="3" t="str" cm="1">
+      <c r="S5" t="str" cm="1">
         <f t="array" ref="S5">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -1551,35 +1550,35 @@
         <f t="array" ref="K6">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L6" s="3" cm="1">
+      <c r="L6" cm="1">
         <f t="array" ref="L6">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>250</v>
       </c>
-      <c r="M6" s="3" cm="1">
+      <c r="M6" cm="1">
         <f t="array" ref="M6">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>670</v>
       </c>
-      <c r="N6" s="3" t="str" cm="1">
+      <c r="N6" t="str" cm="1">
         <f t="array" ref="N6">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O6" s="3" t="str" cm="1">
+      <c r="O6" t="str" cm="1">
         <f t="array" ref="O6">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P6" s="3" cm="1">
+      <c r="P6" cm="1">
         <f t="array" ref="P6">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>250</v>
       </c>
-      <c r="Q6" s="3" cm="1">
+      <c r="Q6" cm="1">
         <f t="array" ref="Q6">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>670</v>
       </c>
-      <c r="R6" s="3" t="str" cm="1">
+      <c r="R6" t="str" cm="1">
         <f t="array" ref="R6">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S6" s="3" t="str" cm="1">
+      <c r="S6" t="str" cm="1">
         <f t="array" ref="S6">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -1622,35 +1621,35 @@
         <f t="array" ref="K7">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L7" s="3" t="e" cm="1">
+      <c r="L7" t="e" cm="1">
         <f t="array" ref="L7">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M7" s="3" t="e" cm="1">
+      <c r="M7" t="e" cm="1">
         <f t="array" ref="M7">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N7" s="3" t="e" cm="1">
+      <c r="N7" t="e" cm="1">
         <f t="array" ref="N7">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O7" s="3" t="e" cm="1">
+      <c r="O7" t="e" cm="1">
         <f t="array" ref="O7">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P7" s="3" t="str" cm="1">
+      <c r="P7" t="str" cm="1">
         <f t="array" ref="P7">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>Not Avaliable</v>
       </c>
-      <c r="Q7" s="3" t="str" cm="1">
+      <c r="Q7" t="str" cm="1">
         <f t="array" ref="Q7">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>Not Avaliable</v>
       </c>
-      <c r="R7" s="3" t="str" cm="1">
+      <c r="R7" t="str" cm="1">
         <f t="array" ref="R7">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Not Avaliable</v>
       </c>
-      <c r="S7" s="3" t="str" cm="1">
+      <c r="S7" t="str" cm="1">
         <f t="array" ref="S7">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>Not Avaliable</v>
       </c>
@@ -1693,35 +1692,35 @@
         <f t="array" ref="K8">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-      <c r="L8" s="3" cm="1">
+      <c r="L8" cm="1">
         <f t="array" ref="L8">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>400</v>
       </c>
-      <c r="M8" s="3" cm="1">
+      <c r="M8" cm="1">
         <f t="array" ref="M8">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>2000</v>
       </c>
-      <c r="N8" s="3" t="str" cm="1">
+      <c r="N8" t="str" cm="1">
         <f t="array" ref="N8">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O8" s="3" t="str" cm="1">
+      <c r="O8" t="str" cm="1">
         <f t="array" ref="O8">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>INR</v>
       </c>
-      <c r="P8" s="3" cm="1">
+      <c r="P8" cm="1">
         <f t="array" ref="P8">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>400</v>
       </c>
-      <c r="Q8" s="3" cm="1">
+      <c r="Q8" cm="1">
         <f t="array" ref="Q8">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>2000</v>
       </c>
-      <c r="R8" s="3" t="str" cm="1">
+      <c r="R8" t="str" cm="1">
         <f t="array" ref="R8">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S8" s="3" t="str" cm="1">
+      <c r="S8" t="str" cm="1">
         <f t="array" ref="S8">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
@@ -1764,35 +1763,35 @@
         <f t="array" ref="K9">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-      <c r="L9" s="3" cm="1">
+      <c r="L9" cm="1">
         <f t="array" ref="L9">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>550</v>
       </c>
-      <c r="M9" s="3" cm="1">
+      <c r="M9" cm="1">
         <f t="array" ref="M9">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>4000</v>
       </c>
-      <c r="N9" s="3" t="str" cm="1">
+      <c r="N9" t="str" cm="1">
         <f t="array" ref="N9">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O9" s="3" t="str" cm="1">
+      <c r="O9" t="str" cm="1">
         <f t="array" ref="O9">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>INR</v>
       </c>
-      <c r="P9" s="3" cm="1">
+      <c r="P9" cm="1">
         <f t="array" ref="P9">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>550</v>
       </c>
-      <c r="Q9" s="3" cm="1">
+      <c r="Q9" cm="1">
         <f t="array" ref="Q9">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>4000</v>
       </c>
-      <c r="R9" s="3" t="str" cm="1">
+      <c r="R9" t="str" cm="1">
         <f t="array" ref="R9">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S9" s="3" t="str" cm="1">
+      <c r="S9" t="str" cm="1">
         <f t="array" ref="S9">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
@@ -1835,35 +1834,35 @@
         <f t="array" ref="K10">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-      <c r="L10" s="3" cm="1">
+      <c r="L10" cm="1">
         <f t="array" ref="L10">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>390</v>
       </c>
-      <c r="M10" s="3" cm="1">
+      <c r="M10" cm="1">
         <f t="array" ref="M10">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>1360</v>
       </c>
-      <c r="N10" s="3" t="str" cm="1">
+      <c r="N10" t="str" cm="1">
         <f t="array" ref="N10">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O10" s="3" t="str" cm="1">
+      <c r="O10" t="str" cm="1">
         <f t="array" ref="O10">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>INR</v>
       </c>
-      <c r="P10" s="3" cm="1">
+      <c r="P10" cm="1">
         <f t="array" ref="P10">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>390</v>
       </c>
-      <c r="Q10" s="3" cm="1">
+      <c r="Q10" cm="1">
         <f t="array" ref="Q10">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>1360</v>
       </c>
-      <c r="R10" s="3" t="str" cm="1">
+      <c r="R10" t="str" cm="1">
         <f t="array" ref="R10">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S10" s="3" t="str" cm="1">
+      <c r="S10" t="str" cm="1">
         <f t="array" ref="S10">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
@@ -1906,35 +1905,35 @@
         <f t="array" ref="K11">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-      <c r="L11" s="3" cm="1">
+      <c r="L11" cm="1">
         <f t="array" ref="L11">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>1.4</v>
       </c>
-      <c r="M11" s="3" cm="1">
+      <c r="M11" cm="1">
         <f t="array" ref="M11">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>3.5</v>
       </c>
-      <c r="N11" s="3" t="str" cm="1">
+      <c r="N11" t="str" cm="1">
         <f t="array" ref="N11">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Billions</v>
       </c>
-      <c r="O11" s="3" t="str" cm="1">
+      <c r="O11" t="str" cm="1">
         <f t="array" ref="O11">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>INR</v>
       </c>
-      <c r="P11" s="3" cm="1">
+      <c r="P11" cm="1">
         <f t="array" ref="P11">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>1.4</v>
       </c>
-      <c r="Q11" s="3" cm="1">
+      <c r="Q11" cm="1">
         <f t="array" ref="Q11">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>3.5</v>
       </c>
-      <c r="R11" s="3" t="str" cm="1">
+      <c r="R11" t="str" cm="1">
         <f t="array" ref="R11">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Billions</v>
       </c>
-      <c r="S11" s="3" t="str" cm="1">
+      <c r="S11" t="str" cm="1">
         <f t="array" ref="S11">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
@@ -1977,35 +1976,35 @@
         <f t="array" ref="K12">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L12" s="3" cm="1">
+      <c r="L12" cm="1">
         <f t="array" ref="L12">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>25</v>
       </c>
-      <c r="M12" s="3" cm="1">
+      <c r="M12" cm="1">
         <f t="array" ref="M12">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>73.3</v>
       </c>
-      <c r="N12" s="3" t="str" cm="1">
+      <c r="N12" t="str" cm="1">
         <f t="array" ref="N12">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O12" s="3" t="str" cm="1">
+      <c r="O12" t="str" cm="1">
         <f t="array" ref="O12">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P12" s="3" cm="1">
+      <c r="P12" cm="1">
         <f t="array" ref="P12">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>25</v>
       </c>
-      <c r="Q12" s="3" cm="1">
+      <c r="Q12" cm="1">
         <f t="array" ref="Q12">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>73.3</v>
       </c>
-      <c r="R12" s="3" t="str" cm="1">
+      <c r="R12" t="str" cm="1">
         <f t="array" ref="R12">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S12" s="3" t="str" cm="1">
+      <c r="S12" t="str" cm="1">
         <f t="array" ref="S12">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -2048,35 +2047,35 @@
         <f t="array" ref="K13">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L13" s="3" t="e" cm="1">
+      <c r="L13" t="e" cm="1">
         <f t="array" ref="L13">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>#N/A</v>
       </c>
-      <c r="M13" s="3" t="e" cm="1">
+      <c r="M13" t="e" cm="1">
         <f t="array" ref="M13">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N13" s="3" t="e" cm="1">
+      <c r="N13" t="e" cm="1">
         <f t="array" ref="N13">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>#N/A</v>
       </c>
-      <c r="O13" s="3" t="e" cm="1">
+      <c r="O13" t="e" cm="1">
         <f t="array" ref="O13">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>#N/A</v>
       </c>
-      <c r="P13" s="3" t="str" cm="1">
+      <c r="P13" t="str" cm="1">
         <f t="array" ref="P13">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>Not Avaliable</v>
       </c>
-      <c r="Q13" s="3" t="str" cm="1">
+      <c r="Q13" t="str" cm="1">
         <f t="array" ref="Q13">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>Not Avaliable</v>
       </c>
-      <c r="R13" s="3" t="str" cm="1">
+      <c r="R13" t="str" cm="1">
         <f t="array" ref="R13">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Not Avaliable</v>
       </c>
-      <c r="S13" s="3" t="str" cm="1">
+      <c r="S13" t="str" cm="1">
         <f t="array" ref="S13">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>Not Avaliable</v>
       </c>
@@ -2119,35 +2118,35 @@
         <f t="array" ref="K14">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L14" s="3" cm="1">
+      <c r="L14" cm="1">
         <f t="array" ref="L14">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>165</v>
       </c>
-      <c r="M14" s="3" cm="1">
+      <c r="M14" cm="1">
         <f t="array" ref="M14">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>701.8</v>
       </c>
-      <c r="N14" s="3" t="str" cm="1">
+      <c r="N14" t="str" cm="1">
         <f t="array" ref="N14">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O14" s="3" t="str" cm="1">
+      <c r="O14" t="str" cm="1">
         <f t="array" ref="O14">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P14" s="3" cm="1">
+      <c r="P14" cm="1">
         <f t="array" ref="P14">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>165</v>
       </c>
-      <c r="Q14" s="3" cm="1">
+      <c r="Q14" cm="1">
         <f t="array" ref="Q14">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>701.8</v>
       </c>
-      <c r="R14" s="3" t="str" cm="1">
+      <c r="R14" t="str" cm="1">
         <f t="array" ref="R14">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S14" s="3" t="str" cm="1">
+      <c r="S14" t="str" cm="1">
         <f t="array" ref="S14">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -2190,35 +2189,35 @@
         <f t="array" ref="K15">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L15" s="3" cm="1">
+      <c r="L15" cm="1">
         <f t="array" ref="L15">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>55</v>
       </c>
-      <c r="M15" s="3" cm="1">
+      <c r="M15" cm="1">
         <f t="array" ref="M15">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>307.10000000000002</v>
       </c>
-      <c r="N15" s="3" t="str" cm="1">
+      <c r="N15" t="str" cm="1">
         <f t="array" ref="N15">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O15" s="3" t="str" cm="1">
+      <c r="O15" t="str" cm="1">
         <f t="array" ref="O15">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P15" s="3" cm="1">
+      <c r="P15" cm="1">
         <f t="array" ref="P15">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>55</v>
       </c>
-      <c r="Q15" s="3" cm="1">
+      <c r="Q15" cm="1">
         <f t="array" ref="Q15">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>307.10000000000002</v>
       </c>
-      <c r="R15" s="3" t="str" cm="1">
+      <c r="R15" t="str" cm="1">
         <f t="array" ref="R15">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S15" s="3" t="str" cm="1">
+      <c r="S15" t="str" cm="1">
         <f t="array" ref="S15">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -2261,35 +2260,35 @@
         <f t="array" ref="K16">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L16" s="3" cm="1">
+      <c r="L16" cm="1">
         <f t="array" ref="L16">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>103</v>
       </c>
-      <c r="M16" s="3" cm="1">
+      <c r="M16" cm="1">
         <f t="array" ref="M16">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>460.5</v>
       </c>
-      <c r="N16" s="3" t="str" cm="1">
+      <c r="N16" t="str" cm="1">
         <f t="array" ref="N16">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O16" s="3" t="str" cm="1">
+      <c r="O16" t="str" cm="1">
         <f t="array" ref="O16">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P16" s="3" cm="1">
+      <c r="P16" cm="1">
         <f t="array" ref="P16">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>103</v>
       </c>
-      <c r="Q16" s="3" cm="1">
+      <c r="Q16" cm="1">
         <f t="array" ref="Q16">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>460.5</v>
       </c>
-      <c r="R16" s="3" t="str" cm="1">
+      <c r="R16" t="str" cm="1">
         <f t="array" ref="R16">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S16" s="3" t="str" cm="1">
+      <c r="S16" t="str" cm="1">
         <f t="array" ref="S16">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -2332,35 +2331,35 @@
         <f t="array" ref="K17">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L17" s="3" cm="1">
+      <c r="L17" cm="1">
         <f t="array" ref="L17">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>200</v>
       </c>
-      <c r="M17" s="3" cm="1">
+      <c r="M17" cm="1">
         <f t="array" ref="M17">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>2202</v>
       </c>
-      <c r="N17" s="3" t="str" cm="1">
+      <c r="N17" t="str" cm="1">
         <f t="array" ref="N17">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O17" s="3" t="str" cm="1">
+      <c r="O17" t="str" cm="1">
         <f t="array" ref="O17">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P17" s="3" cm="1">
+      <c r="P17" cm="1">
         <f t="array" ref="P17">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>200</v>
       </c>
-      <c r="Q17" s="3" cm="1">
+      <c r="Q17" cm="1">
         <f t="array" ref="Q17">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>2202</v>
       </c>
-      <c r="R17" s="3" t="str" cm="1">
+      <c r="R17" t="str" cm="1">
         <f t="array" ref="R17">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S17" s="3" t="str" cm="1">
+      <c r="S17" t="str" cm="1">
         <f t="array" ref="S17">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -2403,35 +2402,35 @@
         <f t="array" ref="K18">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L18" s="3" cm="1">
+      <c r="L18" cm="1">
         <f t="array" ref="L18">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>3.18</v>
       </c>
-      <c r="M18" s="3" cm="1">
+      <c r="M18" cm="1">
         <f t="array" ref="M18">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>3.3</v>
       </c>
-      <c r="N18" s="3" t="str" cm="1">
+      <c r="N18" t="str" cm="1">
         <f t="array" ref="N18">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O18" s="3" t="str" cm="1">
+      <c r="O18" t="str" cm="1">
         <f t="array" ref="O18">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P18" s="3" cm="1">
+      <c r="P18" cm="1">
         <f t="array" ref="P18">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>3.18</v>
       </c>
-      <c r="Q18" s="3" cm="1">
+      <c r="Q18" cm="1">
         <f t="array" ref="Q18">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>3.3</v>
       </c>
-      <c r="R18" s="3" t="str" cm="1">
+      <c r="R18" t="str" cm="1">
         <f t="array" ref="R18">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S18" s="3" t="str" cm="1">
+      <c r="S18" t="str" cm="1">
         <f t="array" ref="S18">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -2474,35 +2473,35 @@
         <f t="array" ref="K19">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L19" s="3" cm="1">
+      <c r="L19" cm="1">
         <f t="array" ref="L19">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>237</v>
       </c>
-      <c r="M19" s="3" cm="1">
+      <c r="M19" cm="1">
         <f t="array" ref="M19">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>2847</v>
       </c>
-      <c r="N19" s="3" t="str" cm="1">
+      <c r="N19" t="str" cm="1">
         <f t="array" ref="N19">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O19" s="3" t="str" cm="1">
+      <c r="O19" t="str" cm="1">
         <f t="array" ref="O19">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P19" s="3" cm="1">
+      <c r="P19" cm="1">
         <f t="array" ref="P19">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>237</v>
       </c>
-      <c r="Q19" s="3" cm="1">
+      <c r="Q19" cm="1">
         <f t="array" ref="Q19">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>2847</v>
       </c>
-      <c r="R19" s="3" t="str" cm="1">
+      <c r="R19" t="str" cm="1">
         <f t="array" ref="R19">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S19" s="3" t="str" cm="1">
+      <c r="S19" t="str" cm="1">
         <f t="array" ref="S19">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -2545,35 +2544,35 @@
         <f t="array" ref="K20">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L20" s="3" cm="1">
+      <c r="L20" cm="1">
         <f t="array" ref="L20">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>7.2</v>
       </c>
-      <c r="M20" s="3" cm="1">
+      <c r="M20" cm="1">
         <f t="array" ref="M20">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>291</v>
       </c>
-      <c r="N20" s="3" t="str" cm="1">
+      <c r="N20" t="str" cm="1">
         <f t="array" ref="N20">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O20" s="3" t="str" cm="1">
+      <c r="O20" t="str" cm="1">
         <f t="array" ref="O20">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P20" s="3" cm="1">
+      <c r="P20" cm="1">
         <f t="array" ref="P20">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>7.2</v>
       </c>
-      <c r="Q20" s="3" cm="1">
+      <c r="Q20" cm="1">
         <f t="array" ref="Q20">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>291</v>
       </c>
-      <c r="R20" s="3" t="str" cm="1">
+      <c r="R20" t="str" cm="1">
         <f t="array" ref="R20">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S20" s="3" t="str" cm="1">
+      <c r="S20" t="str" cm="1">
         <f t="array" ref="S20">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -2616,35 +2615,35 @@
         <f t="array" ref="K21">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L21" s="3" cm="1">
+      <c r="L21" cm="1">
         <f t="array" ref="L21">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>185</v>
       </c>
-      <c r="M21" s="3" cm="1">
+      <c r="M21" cm="1">
         <f t="array" ref="M21">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>1006</v>
       </c>
-      <c r="N21" s="3" t="str" cm="1">
+      <c r="N21" t="str" cm="1">
         <f t="array" ref="N21">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O21" s="3" t="str" cm="1">
+      <c r="O21" t="str" cm="1">
         <f t="array" ref="O21">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P21" s="3" cm="1">
+      <c r="P21" cm="1">
         <f t="array" ref="P21">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>185</v>
       </c>
-      <c r="Q21" s="3" cm="1">
+      <c r="Q21" cm="1">
         <f t="array" ref="Q21">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>1006</v>
       </c>
-      <c r="R21" s="3" t="str" cm="1">
+      <c r="R21" t="str" cm="1">
         <f t="array" ref="R21">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S21" s="3" t="str" cm="1">
+      <c r="S21" t="str" cm="1">
         <f t="array" ref="S21">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -2687,35 +2686,35 @@
         <f t="array" ref="K22">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L22" s="3" cm="1">
+      <c r="L22" cm="1">
         <f t="array" ref="L22">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>22</v>
       </c>
-      <c r="M22" s="3" cm="1">
+      <c r="M22" cm="1">
         <f t="array" ref="M22">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>322.2</v>
       </c>
-      <c r="N22" s="3" t="str" cm="1">
+      <c r="N22" t="str" cm="1">
         <f t="array" ref="N22">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O22" s="3" t="str" cm="1">
+      <c r="O22" t="str" cm="1">
         <f t="array" ref="O22">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P22" s="3" cm="1">
+      <c r="P22" cm="1">
         <f t="array" ref="P22">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>22</v>
       </c>
-      <c r="Q22" s="3" cm="1">
+      <c r="Q22" cm="1">
         <f t="array" ref="Q22">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>322.2</v>
       </c>
-      <c r="R22" s="3" t="str" cm="1">
+      <c r="R22" t="str" cm="1">
         <f t="array" ref="R22">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S22" s="3" t="str" cm="1">
+      <c r="S22" t="str" cm="1">
         <f t="array" ref="S22">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -2758,35 +2757,35 @@
         <f t="array" ref="K23">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L23" s="3" cm="1">
+      <c r="L23" cm="1">
         <f t="array" ref="L23">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>63</v>
       </c>
-      <c r="M23" s="3" cm="1">
+      <c r="M23" cm="1">
         <f t="array" ref="M23">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>1046</v>
       </c>
-      <c r="N23" s="3" t="str" cm="1">
+      <c r="N23" t="str" cm="1">
         <f t="array" ref="N23">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O23" s="3" t="str" cm="1">
+      <c r="O23" t="str" cm="1">
         <f t="array" ref="O23">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P23" s="3" cm="1">
+      <c r="P23" cm="1">
         <f t="array" ref="P23">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>63</v>
       </c>
-      <c r="Q23" s="3" cm="1">
+      <c r="Q23" cm="1">
         <f t="array" ref="Q23">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>1046</v>
       </c>
-      <c r="R23" s="3" t="str" cm="1">
+      <c r="R23" t="str" cm="1">
         <f t="array" ref="R23">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S23" s="3" t="str" cm="1">
+      <c r="S23" t="str" cm="1">
         <f t="array" ref="S23">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -2829,35 +2828,35 @@
         <f t="array" ref="K24">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L24" s="3" cm="1">
+      <c r="L24" cm="1">
         <f t="array" ref="L24">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>15.5</v>
       </c>
-      <c r="M24" s="3" cm="1">
+      <c r="M24" cm="1">
         <f t="array" ref="M24">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>263.10000000000002</v>
       </c>
-      <c r="N24" s="3" t="str" cm="1">
+      <c r="N24" t="str" cm="1">
         <f t="array" ref="N24">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O24" s="3" t="str" cm="1">
+      <c r="O24" t="str" cm="1">
         <f t="array" ref="O24">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P24" s="3" cm="1">
+      <c r="P24" cm="1">
         <f t="array" ref="P24">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>15.5</v>
       </c>
-      <c r="Q24" s="3" cm="1">
+      <c r="Q24" cm="1">
         <f t="array" ref="Q24">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>263.10000000000002</v>
       </c>
-      <c r="R24" s="3" t="str" cm="1">
+      <c r="R24" t="str" cm="1">
         <f t="array" ref="R24">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S24" s="3" t="str" cm="1">
+      <c r="S24" t="str" cm="1">
         <f t="array" ref="S24">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -2900,35 +2899,35 @@
         <f t="array" ref="K25">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L25" s="3" cm="1">
+      <c r="L25" cm="1">
         <f t="array" ref="L25">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>400</v>
       </c>
-      <c r="M25" s="3" cm="1">
+      <c r="M25" cm="1">
         <f t="array" ref="M25">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>2798</v>
       </c>
-      <c r="N25" s="3" t="str" cm="1">
+      <c r="N25" t="str" cm="1">
         <f t="array" ref="N25">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O25" s="3" t="str" cm="1">
+      <c r="O25" t="str" cm="1">
         <f t="array" ref="O25">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P25" s="3" cm="1">
+      <c r="P25" cm="1">
         <f t="array" ref="P25">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>400</v>
       </c>
-      <c r="Q25" s="3" cm="1">
+      <c r="Q25" cm="1">
         <f t="array" ref="Q25">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>2798</v>
       </c>
-      <c r="R25" s="3" t="str" cm="1">
+      <c r="R25" t="str" cm="1">
         <f t="array" ref="R25">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S25" s="3" t="str" cm="1">
+      <c r="S25" t="str" cm="1">
         <f t="array" ref="S25">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -2971,35 +2970,35 @@
         <f t="array" ref="K26">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L26" s="3" cm="1">
+      <c r="L26" cm="1">
         <f t="array" ref="L26">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>400</v>
       </c>
-      <c r="M26" s="3" cm="1">
+      <c r="M26" cm="1">
         <f t="array" ref="M26">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>2048</v>
       </c>
-      <c r="N26" s="3" t="str" cm="1">
+      <c r="N26" t="str" cm="1">
         <f t="array" ref="N26">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O26" s="3" t="str" cm="1">
+      <c r="O26" t="str" cm="1">
         <f t="array" ref="O26">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P26" s="3" cm="1">
+      <c r="P26" cm="1">
         <f t="array" ref="P26">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>400</v>
       </c>
-      <c r="Q26" s="3" cm="1">
+      <c r="Q26" cm="1">
         <f t="array" ref="Q26">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>2048</v>
       </c>
-      <c r="R26" s="3" t="str" cm="1">
+      <c r="R26" t="str" cm="1">
         <f t="array" ref="R26">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S26" s="3" t="str" cm="1">
+      <c r="S26" t="str" cm="1">
         <f t="array" ref="S26">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -3042,35 +3041,35 @@
         <f t="array" ref="K27">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-      <c r="L27" s="3" cm="1">
+      <c r="L27" cm="1">
         <f t="array" ref="L27">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>70</v>
       </c>
-      <c r="M27" s="3" cm="1">
+      <c r="M27" cm="1">
         <f t="array" ref="M27">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>100</v>
       </c>
-      <c r="N27" s="3" t="str" cm="1">
+      <c r="N27" t="str" cm="1">
         <f t="array" ref="N27">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O27" s="3" t="str" cm="1">
+      <c r="O27" t="str" cm="1">
         <f t="array" ref="O27">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>INR</v>
       </c>
-      <c r="P27" s="3" cm="1">
+      <c r="P27" cm="1">
         <f t="array" ref="P27">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>70</v>
       </c>
-      <c r="Q27" s="3" cm="1">
+      <c r="Q27" cm="1">
         <f t="array" ref="Q27">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>100</v>
       </c>
-      <c r="R27" s="3" t="str" cm="1">
+      <c r="R27" t="str" cm="1">
         <f t="array" ref="R27">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S27" s="3" t="str" cm="1">
+      <c r="S27" t="str" cm="1">
         <f t="array" ref="S27">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
@@ -3113,35 +3112,35 @@
         <f t="array" ref="K28">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-      <c r="L28" s="3" cm="1">
+      <c r="L28" cm="1">
         <f t="array" ref="L28">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>120</v>
       </c>
-      <c r="M28" s="3" cm="1">
+      <c r="M28" cm="1">
         <f t="array" ref="M28">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>1350</v>
       </c>
-      <c r="N28" s="3" t="str" cm="1">
+      <c r="N28" t="str" cm="1">
         <f t="array" ref="N28">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O28" s="3" t="str" cm="1">
+      <c r="O28" t="str" cm="1">
         <f t="array" ref="O28">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>INR</v>
       </c>
-      <c r="P28" s="3" cm="1">
+      <c r="P28" cm="1">
         <f t="array" ref="P28">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>120</v>
       </c>
-      <c r="Q28" s="3" cm="1">
+      <c r="Q28" cm="1">
         <f t="array" ref="Q28">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>1350</v>
       </c>
-      <c r="R28" s="3" t="str" cm="1">
+      <c r="R28" t="str" cm="1">
         <f t="array" ref="R28">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S28" s="3" t="str" cm="1">
+      <c r="S28" t="str" cm="1">
         <f t="array" ref="S28">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
@@ -3184,35 +3183,35 @@
         <f t="array" ref="K29">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-      <c r="L29" s="3" cm="1">
+      <c r="L29" cm="1">
         <f t="array" ref="L29">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>100</v>
       </c>
-      <c r="M29" s="3" cm="1">
+      <c r="M29" cm="1">
         <f t="array" ref="M29">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>410</v>
       </c>
-      <c r="N29" s="3" t="str" cm="1">
+      <c r="N29" t="str" cm="1">
         <f t="array" ref="N29">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O29" s="3" t="str" cm="1">
+      <c r="O29" t="str" cm="1">
         <f t="array" ref="O29">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>INR</v>
       </c>
-      <c r="P29" s="3" cm="1">
+      <c r="P29" cm="1">
         <f t="array" ref="P29">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>100</v>
       </c>
-      <c r="Q29" s="3" cm="1">
+      <c r="Q29" cm="1">
         <f t="array" ref="Q29">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>410</v>
       </c>
-      <c r="R29" s="3" t="str" cm="1">
+      <c r="R29" t="str" cm="1">
         <f t="array" ref="R29">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S29" s="3" t="str" cm="1">
+      <c r="S29" t="str" cm="1">
         <f t="array" ref="S29">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
@@ -3255,35 +3254,35 @@
         <f t="array" ref="K30">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-      <c r="L30" s="3" cm="1">
+      <c r="L30" cm="1">
         <f t="array" ref="L30">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>850</v>
       </c>
-      <c r="M30" s="3" cm="1">
+      <c r="M30" cm="1">
         <f t="array" ref="M30">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>8540</v>
       </c>
-      <c r="N30" s="3" t="str" cm="1">
+      <c r="N30" t="str" cm="1">
         <f t="array" ref="N30">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O30" s="3" t="str" cm="1">
+      <c r="O30" t="str" cm="1">
         <f t="array" ref="O30">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>INR</v>
       </c>
-      <c r="P30" s="3" cm="1">
+      <c r="P30" cm="1">
         <f t="array" ref="P30">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>850</v>
       </c>
-      <c r="Q30" s="3" cm="1">
+      <c r="Q30" cm="1">
         <f t="array" ref="Q30">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>8540</v>
       </c>
-      <c r="R30" s="3" t="str" cm="1">
+      <c r="R30" t="str" cm="1">
         <f t="array" ref="R30">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S30" s="3" t="str" cm="1">
+      <c r="S30" t="str" cm="1">
         <f t="array" ref="S30">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
@@ -3326,35 +3325,35 @@
         <f t="array" ref="K31">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-      <c r="L31" s="3" cm="1">
+      <c r="L31" cm="1">
         <f t="array" ref="L31">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>1</v>
       </c>
-      <c r="M31" s="3" cm="1">
+      <c r="M31" cm="1">
         <f t="array" ref="M31">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>5.9</v>
       </c>
-      <c r="N31" s="3" t="str" cm="1">
+      <c r="N31" t="str" cm="1">
         <f t="array" ref="N31">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Billions</v>
       </c>
-      <c r="O31" s="3" t="str" cm="1">
+      <c r="O31" t="str" cm="1">
         <f t="array" ref="O31">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>INR</v>
       </c>
-      <c r="P31" s="3" cm="1">
+      <c r="P31" cm="1">
         <f t="array" ref="P31">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>1</v>
       </c>
-      <c r="Q31" s="3" cm="1">
+      <c r="Q31" cm="1">
         <f t="array" ref="Q31">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>5.9</v>
       </c>
-      <c r="R31" s="3" t="str" cm="1">
+      <c r="R31" t="str" cm="1">
         <f t="array" ref="R31">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Billions</v>
       </c>
-      <c r="S31" s="3" t="str" cm="1">
+      <c r="S31" t="str" cm="1">
         <f t="array" ref="S31">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
@@ -3397,35 +3396,35 @@
         <f t="array" ref="K32">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-      <c r="L32" s="3" cm="1">
+      <c r="L32" cm="1">
         <f t="array" ref="L32">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>2</v>
       </c>
-      <c r="M32" s="3" cm="1">
+      <c r="M32" cm="1">
         <f t="array" ref="M32">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>3.6</v>
       </c>
-      <c r="N32" s="3" t="str" cm="1">
+      <c r="N32" t="str" cm="1">
         <f t="array" ref="N32">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Billions</v>
       </c>
-      <c r="O32" s="3" t="str" cm="1">
+      <c r="O32" t="str" cm="1">
         <f t="array" ref="O32">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>INR</v>
       </c>
-      <c r="P32" s="3" cm="1">
+      <c r="P32" cm="1">
         <f t="array" ref="P32">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>2</v>
       </c>
-      <c r="Q32" s="3" cm="1">
+      <c r="Q32" cm="1">
         <f t="array" ref="Q32">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>3.6</v>
       </c>
-      <c r="R32" s="3" t="str" cm="1">
+      <c r="R32" t="str" cm="1">
         <f t="array" ref="R32">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Billions</v>
       </c>
-      <c r="S32" s="3" t="str" cm="1">
+      <c r="S32" t="str" cm="1">
         <f t="array" ref="S32">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
@@ -3468,35 +3467,35 @@
         <f t="array" ref="K33">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-      <c r="L33" s="3" cm="1">
+      <c r="L33" cm="1">
         <f t="array" ref="L33">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>5.5</v>
       </c>
-      <c r="M33" s="3" cm="1">
+      <c r="M33" cm="1">
         <f t="array" ref="M33">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>12</v>
       </c>
-      <c r="N33" s="3" t="str" cm="1">
+      <c r="N33" t="str" cm="1">
         <f t="array" ref="N33">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Billions</v>
       </c>
-      <c r="O33" s="3" t="str" cm="1">
+      <c r="O33" t="str" cm="1">
         <f t="array" ref="O33">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>INR</v>
       </c>
-      <c r="P33" s="3" cm="1">
+      <c r="P33" cm="1">
         <f t="array" ref="P33">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>5.5</v>
       </c>
-      <c r="Q33" s="3" cm="1">
+      <c r="Q33" cm="1">
         <f t="array" ref="Q33">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>12</v>
       </c>
-      <c r="R33" s="3" t="str" cm="1">
+      <c r="R33" t="str" cm="1">
         <f t="array" ref="R33">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Billions</v>
       </c>
-      <c r="S33" s="3" t="str" cm="1">
+      <c r="S33" t="str" cm="1">
         <f t="array" ref="S33">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
@@ -3539,35 +3538,35 @@
         <f t="array" ref="K34">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-      <c r="L34" s="3" cm="1">
+      <c r="L34" cm="1">
         <f t="array" ref="L34">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>1.8</v>
       </c>
-      <c r="M34" s="3" cm="1">
+      <c r="M34" cm="1">
         <f t="array" ref="M34">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>6.5</v>
       </c>
-      <c r="N34" s="3" t="str" cm="1">
+      <c r="N34" t="str" cm="1">
         <f t="array" ref="N34">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Billions</v>
       </c>
-      <c r="O34" s="3" t="str" cm="1">
+      <c r="O34" t="str" cm="1">
         <f t="array" ref="O34">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>INR</v>
       </c>
-      <c r="P34" s="3" cm="1">
+      <c r="P34" cm="1">
         <f t="array" ref="P34">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>1.8</v>
       </c>
-      <c r="Q34" s="3" cm="1">
+      <c r="Q34" cm="1">
         <f t="array" ref="Q34">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>6.5</v>
       </c>
-      <c r="R34" s="3" t="str" cm="1">
+      <c r="R34" t="str" cm="1">
         <f t="array" ref="R34">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Billions</v>
       </c>
-      <c r="S34" s="3" t="str" cm="1">
+      <c r="S34" t="str" cm="1">
         <f t="array" ref="S34">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
@@ -3610,35 +3609,35 @@
         <f t="array" ref="K35">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-      <c r="L35" s="3" cm="1">
+      <c r="L35" cm="1">
         <f t="array" ref="L35">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>250</v>
       </c>
-      <c r="M35" s="3" cm="1">
+      <c r="M35" cm="1">
         <f t="array" ref="M35">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>3409</v>
       </c>
-      <c r="N35" s="3" t="str" cm="1">
+      <c r="N35" t="str" cm="1">
         <f t="array" ref="N35">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O35" s="3" t="str" cm="1">
+      <c r="O35" t="str" cm="1">
         <f t="array" ref="O35">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>INR</v>
       </c>
-      <c r="P35" s="3" cm="1">
+      <c r="P35" cm="1">
         <f t="array" ref="P35">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>250</v>
       </c>
-      <c r="Q35" s="3" cm="1">
+      <c r="Q35" cm="1">
         <f t="array" ref="Q35">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>3409</v>
       </c>
-      <c r="R35" s="3" t="str" cm="1">
+      <c r="R35" t="str" cm="1">
         <f t="array" ref="R35">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S35" s="3" t="str" cm="1">
+      <c r="S35" t="str" cm="1">
         <f t="array" ref="S35">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
@@ -3681,35 +3680,35 @@
         <f t="array" ref="K36">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-      <c r="L36" s="3" cm="1">
+      <c r="L36" cm="1">
         <f t="array" ref="L36">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>900</v>
       </c>
-      <c r="M36" s="3" cm="1">
+      <c r="M36" cm="1">
         <f t="array" ref="M36">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>11690</v>
       </c>
-      <c r="N36" s="3" t="str" cm="1">
+      <c r="N36" t="str" cm="1">
         <f t="array" ref="N36">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O36" s="3" t="str" cm="1">
+      <c r="O36" t="str" cm="1">
         <f t="array" ref="O36">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>INR</v>
       </c>
-      <c r="P36" s="3" cm="1">
+      <c r="P36" cm="1">
         <f t="array" ref="P36">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>900</v>
       </c>
-      <c r="Q36" s="3" cm="1">
+      <c r="Q36" cm="1">
         <f t="array" ref="Q36">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>11690</v>
       </c>
-      <c r="R36" s="3" t="str" cm="1">
+      <c r="R36" t="str" cm="1">
         <f t="array" ref="R36">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S36" s="3" t="str" cm="1">
+      <c r="S36" t="str" cm="1">
         <f t="array" ref="S36">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
@@ -3752,35 +3751,35 @@
         <f t="array" ref="K37">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L37" s="3" cm="1">
+      <c r="L37" cm="1">
         <f t="array" ref="L37">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>216.7</v>
       </c>
-      <c r="M37" s="3" cm="1">
+      <c r="M37" cm="1">
         <f t="array" ref="M37">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>370.6</v>
       </c>
-      <c r="N37" s="3" t="str" cm="1">
+      <c r="N37" t="str" cm="1">
         <f t="array" ref="N37">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O37" s="3" t="str" cm="1">
+      <c r="O37" t="str" cm="1">
         <f t="array" ref="O37">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P37" s="3" cm="1">
+      <c r="P37" cm="1">
         <f t="array" ref="P37">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>216.7</v>
       </c>
-      <c r="Q37" s="3" cm="1">
+      <c r="Q37" cm="1">
         <f t="array" ref="Q37">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>370.6</v>
       </c>
-      <c r="R37" s="3" t="str" cm="1">
+      <c r="R37" t="str" cm="1">
         <f t="array" ref="R37">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S37" s="3" t="str" cm="1">
+      <c r="S37" t="str" cm="1">
         <f t="array" ref="S37">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -3823,35 +3822,35 @@
         <f t="array" ref="K38">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>USD</v>
       </c>
-      <c r="L38" s="3" cm="1">
+      <c r="L38" cm="1">
         <f t="array" ref="L38">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>177</v>
       </c>
-      <c r="M38" s="3" cm="1">
+      <c r="M38" cm="1">
         <f t="array" ref="M38">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>714.4</v>
       </c>
-      <c r="N38" s="3" t="str" cm="1">
+      <c r="N38" t="str" cm="1">
         <f t="array" ref="N38">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O38" s="3" t="str" cm="1">
+      <c r="O38" t="str" cm="1">
         <f t="array" ref="O38">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>USD</v>
       </c>
-      <c r="P38" s="3" cm="1">
+      <c r="P38" cm="1">
         <f t="array" ref="P38">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>177</v>
       </c>
-      <c r="Q38" s="3" cm="1">
+      <c r="Q38" cm="1">
         <f t="array" ref="Q38">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>714.4</v>
       </c>
-      <c r="R38" s="3" t="str" cm="1">
+      <c r="R38" t="str" cm="1">
         <f t="array" ref="R38">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S38" s="3" t="str" cm="1">
+      <c r="S38" t="str" cm="1">
         <f t="array" ref="S38">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
@@ -3894,35 +3893,35 @@
         <f t="array" ref="K39">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-      <c r="L39" s="3" cm="1">
+      <c r="L39" cm="1">
         <f t="array" ref="L39">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>1.8</v>
       </c>
-      <c r="M39" s="3" cm="1">
+      <c r="M39" cm="1">
         <f t="array" ref="M39">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>3.1</v>
       </c>
-      <c r="N39" s="3" t="str" cm="1">
+      <c r="N39" t="str" cm="1">
         <f t="array" ref="N39">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Billions</v>
       </c>
-      <c r="O39" s="3" t="str" cm="1">
+      <c r="O39" t="str" cm="1">
         <f t="array" ref="O39">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>INR</v>
       </c>
-      <c r="P39" s="3" cm="1">
+      <c r="P39" cm="1">
         <f t="array" ref="P39">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>1.8</v>
       </c>
-      <c r="Q39" s="3" cm="1">
+      <c r="Q39" cm="1">
         <f t="array" ref="Q39">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>3.1</v>
       </c>
-      <c r="R39" s="3" t="str" cm="1">
+      <c r="R39" t="str" cm="1">
         <f t="array" ref="R39">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Billions</v>
       </c>
-      <c r="S39" s="3" t="str" cm="1">
+      <c r="S39" t="str" cm="1">
         <f t="array" ref="S39">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
@@ -3965,42 +3964,42 @@
         <f t="array" ref="K40">VLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[#All],5,FALSE)</f>
         <v>INR</v>
       </c>
-      <c r="L40" s="3" cm="1">
+      <c r="L40" cm="1">
         <f t="array" ref="L40">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[budget]],Financials[#Headers],0))</f>
         <v>500</v>
       </c>
-      <c r="M40" s="3" cm="1">
+      <c r="M40" cm="1">
         <f t="array" ref="M40">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[revenue]],Financials[#Headers],0))</f>
         <v>950</v>
       </c>
-      <c r="N40" s="3" t="str" cm="1">
+      <c r="N40" t="str" cm="1">
         <f t="array" ref="N40">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[unit]],Financials[#Headers],0))</f>
         <v>Millions</v>
       </c>
-      <c r="O40" s="3" t="str" cm="1">
+      <c r="O40" t="str" cm="1">
         <f t="array" ref="O40">INDEX(Financials[],MATCH(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[movie_id]:[movie_id]],0),MATCH(Movies[[#Headers],[currency]],Financials[#Headers],0))</f>
         <v>INR</v>
       </c>
-      <c r="P40" s="3" cm="1">
+      <c r="P40" cm="1">
         <f t="array" ref="P40">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[budget]],"Not Avaliable",0)</f>
         <v>500</v>
       </c>
-      <c r="Q40" s="3" cm="1">
+      <c r="Q40" cm="1">
         <f t="array" ref="Q40">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[revenue]],"Not Avaliable",0)</f>
         <v>950</v>
       </c>
-      <c r="R40" s="3" t="str" cm="1">
+      <c r="R40" t="str" cm="1">
         <f t="array" ref="R40">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[unit]],"Not Avaliable",0)</f>
         <v>Millions</v>
       </c>
-      <c r="S40" s="3" t="str" cm="1">
+      <c r="S40" t="str" cm="1">
         <f t="array" ref="S40">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B40">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4014,7 +4013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF951C0-D968-407B-BACE-9EC26BF67B79}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -6376,6 +6375,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="46297aa2-77d1-4586-9726-07d56a535ee7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <MediaLengthInSeconds xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824" xsi:nil="true"/>
+    <SharedWithUsers xmlns="46297aa2-77d1-4586-9726-07d56a535ee7">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100686C0266E115364AA9B96DE5BECF7DB6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c921848065db5a49d1de2391ec81580e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="631564f6-0349-4cc5-b00d-7cf3ba42f824" xmlns:ns3="46297aa2-77d1-4586-9726-07d56a535ee7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff9dd1b7eff9d7fccc1b7fb333026bb0" ns2:_="" ns3:_="">
     <xsd:import namespace="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
@@ -6604,25 +6622,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="46297aa2-77d1-4586-9726-07d56a535ee7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <MediaLengthInSeconds xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824" xsi:nil="true"/>
-    <SharedWithUsers xmlns="46297aa2-77d1-4586-9726-07d56a535ee7">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6633,6 +6632,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFF9027-FBEF-4910-8EE6-13D64012C7E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="46297aa2-77d1-4586-9726-07d56a535ee7"/>
+    <ds:schemaRef ds:uri="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02BA008F-2FD2-4901-8027-A024DA31C6C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6651,17 +6661,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFF9027-FBEF-4910-8EE6-13D64012C7E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46297aa2-77d1-4586-9726-07d56a535ee7"/>
-    <ds:schemaRef ds:uri="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
   <ds:schemaRefs>
